--- a/USdollar Vs INR.xlsx
+++ b/USdollar Vs INR.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashishranjan/Downloads/Data_analytics/Data_Analytics_Projects/Excel/US dollar Vs INR_Live_Update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B354CF-1F4B-D74D-8573-D83F524DF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A39ACA-265C-DF45-A778-6EA691D302FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{461E9281-049B-2545-8458-EBFB98D0FC85}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" activeTab="2" xr2:uid="{461E9281-049B-2545-8458-EBFB98D0FC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Working sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="Real Time Dollar Vs INR" sheetId="4" r:id="rId3"/>
+    <sheet name="Real Time Dollar Vs INR" sheetId="4" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="https.iqy" localSheetId="2">'Real Time Dollar Vs INR'!$A$1:$G$102</definedName>
+    <definedName name="https.iqy" localSheetId="1">'Real Time Dollar Vs INR'!$A$1:$G$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="135">
   <si>
     <t xml:space="preserve">Indian Rupees Vs US Dollar </t>
   </si>
@@ -452,6 +452,9 @@
   <si>
     <t>Jul 10, 2023</t>
   </si>
+  <si>
+    <t>USD Vs INR Dasboard</t>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +469,7 @@
     <numFmt numFmtId="168" formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(&quot;₹&quot;* #,##0.000_);_(&quot;₹&quot;* \(#,##0.000\);_(&quot;₹&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,8 +512,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -632,6 +653,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4380,6 +4407,3735 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Date</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Vs Loss/profit in INR</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Working sheet'!$H$4:$H$103</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>Jul 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jul 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jun 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jun 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Jun 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jun 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jun 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jun 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Jun 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Jun 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jun 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jun 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Jun 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Jun 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Jun 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jun 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jun 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jun 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Jun 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Jun 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jun 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>May 31, 2023</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>May 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>May 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>May 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>May 25, 2023</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>May 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>May 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>May 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>May 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>May 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>May 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>May 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>May 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>May 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>May 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>May 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>May 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>May 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>May 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>May 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>May 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>May 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>May 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Apr 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Apr 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Apr 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Apr 25, 2023</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Apr 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Apr 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Apr 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Apr 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Apr 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Apr 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Apr 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Apr 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Apr 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Apr 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Apr 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Apr 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Apr 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Apr 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Apr 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Apr 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Mar 31, 2023</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Mar 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Mar 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Mar 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Mar 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Mar 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Mar 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Mar 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Mar 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Mar 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Mar 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Mar 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mar 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Mar 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Mar 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Mar 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Mar 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Mar 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Mar 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Mar 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Mar 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Mar 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Mar 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Feb 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Feb 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Feb 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Feb 23, 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Working sheet'!$I$4:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>82.254999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.525300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.615300000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.7684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.394099999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.007099999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.950100000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.096299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.075400000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.026499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.998400000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.006500000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.984800000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.919300000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.941500000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.991799999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.981399999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.9148</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.912700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.290400000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.337199999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.444800000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.488299999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.618099999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.517200000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.511200000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.409800000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82.276700000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.666799999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82.683899999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.579700000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.574799999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.742099999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.713700000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82.890600000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.904799999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.725099999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82.450299999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82.296000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82.2667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82.200299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82.100300000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>81.919899999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81.787099999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81.729799999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.716099999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>81.78</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81.778700000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81.774699999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81.744799999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81.765100000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.766900000000007</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.991600000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.8523</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.0548</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82.140900000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82.340100000000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>82.107900000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>82.003699999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.844800000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81.680700000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81.960599999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>82.070099999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81.983900000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>81.884799999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81.831299999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81.95</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82.114800000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82.140900000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.184799999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82.100499999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.255399999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.164299999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82.2149</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.338800000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>82.265299999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82.525800000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82.677000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.5291</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.533000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82.622799999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>82.715699999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82.304900000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82.417400000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>81.957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>82.0184</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81.964500000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82.074600000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>81.854399999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>81.712500000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>82.355699999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>82.419899999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82.635400000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>82.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>82.918000000000006</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>82.617900000000006</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>82.835300000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3C7-624E-949F-D5EEBACB1BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Working sheet'!$H$4:$H$103</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>Jul 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jul 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jun 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jun 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Jun 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jun 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jun 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jun 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Jun 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Jun 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jun 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jun 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Jun 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Jun 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Jun 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jun 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jun 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jun 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Jun 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Jun 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jun 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>May 31, 2023</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>May 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>May 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>May 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>May 25, 2023</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>May 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>May 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>May 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>May 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>May 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>May 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>May 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>May 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>May 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>May 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>May 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>May 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>May 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>May 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>May 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>May 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>May 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>May 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Apr 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Apr 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Apr 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Apr 25, 2023</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Apr 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Apr 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Apr 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Apr 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Apr 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Apr 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Apr 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Apr 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Apr 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Apr 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Apr 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Apr 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Apr 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Apr 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Apr 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Apr 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Mar 31, 2023</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Mar 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Mar 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Mar 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Mar 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Mar 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Mar 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Mar 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Mar 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Mar 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Mar 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Mar 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mar 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Mar 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Mar 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Mar 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Mar 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Mar 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Mar 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Mar 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Mar 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Mar 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Mar 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Feb 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Feb 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Feb 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Feb 23, 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Working sheet'!$J$4:$J$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1080.4500000000558</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1682.100000000034</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1825.9500000000344</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1154.9999999999941</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1168.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1210.6500000000508</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1524.6000000000279</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1311.4499999999653</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1292.5499999999347</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>395.85000000001003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>474.5999999999384</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2197.6499999999887</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54.600000000021964</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>616.35000000001833</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>373.80000000002411</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1863.7499999999463</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3C7-624E-949F-D5EEBACB1BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="25398879"/>
+        <c:axId val="25400607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="25398879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25400607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25400607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Loss/Profit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in INR</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25398879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>US</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dollar Rate Vs Date</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Working sheet'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>One US dollar rate in INR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Working sheet'!$H$3:$H$103</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>Jul 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jul 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jul 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jun 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Jun 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jun 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jun 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jun 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Jun 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Jun 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jun 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jun 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jun 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Jun 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Jun 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Jun 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jun 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jun 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jun 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Jun 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Jun 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jun 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jun 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>May 31, 2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>May 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>May 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>May 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>May 25, 2023</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>May 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>May 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>May 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>May 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>May 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>May 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>May 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>May 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>May 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>May 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>May 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>May 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>May 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>May 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>May 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>May 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>May 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>May 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Apr 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Apr 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Apr 26, 2023</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Apr 25, 2023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Apr 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Apr 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Apr 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Apr 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Apr 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Apr 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Apr 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Apr 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Apr 12, 2023</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Apr 11, 2023</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Apr 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Apr 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Apr 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Apr 05, 2023</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Apr 04, 2023</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Apr 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Mar 31, 2023</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Mar 30, 2023</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Mar 29, 2023</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Mar 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Mar 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Mar 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Mar 23, 2023</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Mar 22, 2023</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Mar 21, 2023</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Mar 20, 2023</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Mar 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mar 16, 2023</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Mar 15, 2023</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Mar 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Mar 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Mar 10, 2023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Mar 09, 2023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Mar 08, 2023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Mar 07, 2023</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Mar 06, 2023</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Mar 03, 2023</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Mar 02, 2023</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Mar 01, 2023</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Feb 28, 2023</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Feb 27, 2023</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Feb 24, 2023</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Feb 23, 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Working sheet'!$I$3:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="1">
+                  <c:v>82.254999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.525300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.615300000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.7684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.394099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.007099999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.950100000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.096299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.075400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.026499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.998400000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.006500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.984800000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.919300000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.941500000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.991799999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.981399999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.9148</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.912700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.290400000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.337199999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.444800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.488299999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.618099999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.517200000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.511200000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82.409800000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.276700000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82.666799999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.683899999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.579700000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.574799999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.742099999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82.713700000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.890600000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.904799999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82.725099999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82.450299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>82.296000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82.2667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82.200299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>82.100300000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81.919899999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81.787099999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.729799999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>81.716099999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81.78</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81.778700000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81.774699999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81.744799999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.765100000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.766900000000007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.991600000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81.8523</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82.0548</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82.140900000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>82.340100000000007</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>82.107900000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82.003699999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81.844800000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81.680700000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>81.960599999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>82.070099999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>81.983900000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81.884799999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81.831299999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>81.95</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82.114800000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.140900000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82.184799999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.100499999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.255399999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82.164299999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.2149</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>82.338800000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82.265299999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82.525800000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.677000000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.5291</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82.533000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>82.622799999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82.715699999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82.304900000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>82.417400000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>81.957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>82.0184</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>81.964500000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>82.074600000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>81.854399999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>81.712500000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>82.355699999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82.419899999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>82.635400000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>82.652000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>82.918000000000006</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>82.617900000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>82.835300000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B874-9242-B265-2AF3EC0A523F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="490802655"/>
+        <c:axId val="2040712000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="490802655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040712000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2040712000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>US</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Dollar Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490802655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Working sheet'!$N$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> #VALUE! </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Working sheet'!$M$27:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>_("₹"* #,##0.000_);_("₹"* \(#,##0.000\);_("₹"* "-"???_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>81.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.089999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.189999999999984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.289999999999978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.389999999999972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.489999999999966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.589999999999961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.689999999999955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.789999999999949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.889999999999944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.989999999999938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.089999999999932</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.189999999999927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.289999999999921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.389999999999915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.48999999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.589999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.689999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.789999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.889999999999887</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83.989999999999881</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.089999999999876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.18999999999987</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.289999999999864</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.389999999999858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Working sheet'!$N$27:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>_("₹"* #,##0.000_);_("₹"* \(#,##0.000\);_("₹"* "-"???_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>839.99999999998204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2939.9999999998627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6089.9999999996835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10289.999999999443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15539.999999999147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21839.999999998789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29189.99999999837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37589.99999999789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47039.999999997359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57539.999999996762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69089.9999999961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81689.999999995387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95339.999999994601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110039.99999999379</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125789.99999999288</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>142589.99999999194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160439.99999999092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>179339.99999998981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199289.99999998871</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220289.99999998751</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242339.99999998626</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>265439.99999998492</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>289589.99999998359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>314789.99999998213</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>341039.99999998062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D139-514A-B8B5-ECDF1B1EC237}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="392275407"/>
+        <c:axId val="392213087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="392275407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Increasing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> US dollar value in INR</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.000_);_(&quot;₹&quot;* \(#,##0.000\);_(&quot;₹&quot;* &quot;-&quot;???_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392213087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392213087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in INR</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.000_);_(&quot;₹&quot;* \(#,##0.000\);_(&quot;₹&quot;* &quot;-&quot;???_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392275407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Working sheet'!$Q$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ₹210 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Working sheet'!$P$27:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>_("₹"* #,##0.000_);_("₹"* \(#,##0.000\);_("₹"* "-"???_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>81.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.690000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.590000000000018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.490000000000023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.390000000000029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.290000000000035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.19000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.090000000000046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.990000000000052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.890000000000057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.790000000000063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.690000000000069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.590000000000074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.49000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.390000000000086</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.290000000000092</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.190000000000097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.090000000000103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.990000000000109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.890000000000114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.79000000000012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79.690000000000126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.590000000000131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>79.490000000000137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.390000000000143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Working sheet'!$Q$27:$Q$52</c:f>
+              <c:numCache>
+                <c:formatCode>_("₹"* #,##0_);_("₹"* \(#,##0\);_("₹"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>209.99999999995822</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1259.9999999998986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3359.9999999997794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6509.9999999995998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10709.999999999362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15959.999999999061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22259.999999998705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29609.99999999829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38009.99999999781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47459.999999997272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57959.999999996675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69509.999999996013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82109.999999995314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95759.999999994528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110459.99999999368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126209.99999999281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143009.99999999185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160859.99999999083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>179759.99999998976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199709.99999998952</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220709.99999998981</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242759.99999999013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>265859.99999999045</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>290009.99999999074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>315209.99999999115</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>341459.9999999915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-964A-0845-9930-86DA9A4D78E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="780046656"/>
+        <c:axId val="780048384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780046656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Decreasing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> US dollar value in INR</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.000_);_(&quot;₹&quot;* \(#,##0.000\);_(&quot;₹&quot;* &quot;-&quot;???_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780048384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="780048384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Profit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in INR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780046656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4540,6 +8296,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6238,6 +10154,2057 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6724,6 +12691,163 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74565DD9-49D4-B541-9211-6427B147B093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>790221</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E8F40F-3DBB-FA4A-8913-EDB4FFA5D7FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F20E6BD-A2CD-7D48-81B4-B241447A3949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121355</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543EAFF1-0739-5040-9953-4ADEDDF0B631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7043,7 +13167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC1AB7E-033D-3A48-994D-E9D8B584B5B9}">
   <dimension ref="A1:AA209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="L23" zoomScale="90" workbookViewId="0">
       <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
@@ -9287,21 +15411,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C13CC6-E2C1-814D-A574-239CA58B907B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:U54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0857C571-5D3E-1B44-BA77-1A4E8C8E9CF5}">
   <dimension ref="A1:G102"/>
   <sheetViews>
@@ -11655,4 +17764,118 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C13CC6-E2C1-814D-A574-239CA58B907B}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/USdollar Vs INR.xlsx
+++ b/USdollar Vs INR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashishranjan/Downloads/Data_analytics/Data_Analytics_Projects/Excel/US dollar Vs INR_Live_Update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A39ACA-265C-DF45-A778-6EA691D302FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6563D41C-DA25-6945-86EA-EB680BA01799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" activeTab="2" xr2:uid="{461E9281-049B-2545-8458-EBFB98D0FC85}"/>
   </bookViews>
@@ -324,21 +324,6 @@
     <t>Mar 02, 2023</t>
   </si>
   <si>
-    <t>Mar 01, 2023</t>
-  </si>
-  <si>
-    <t>Feb 28, 2023</t>
-  </si>
-  <si>
-    <t>Feb 27, 2023</t>
-  </si>
-  <si>
-    <t>Feb 24, 2023</t>
-  </si>
-  <si>
-    <t>Feb 23, 2023</t>
-  </si>
-  <si>
     <t>*Close price adjusted for splits.**Adjusted close price adjusted for splits and dividend and/or capital gain distributions.</t>
   </si>
   <si>
@@ -453,7 +438,22 @@
     <t>Jul 10, 2023</t>
   </si>
   <si>
-    <t>USD Vs INR Dasboard</t>
+    <t>Jul 19, 2023</t>
+  </si>
+  <si>
+    <t>Jul 18, 2023</t>
+  </si>
+  <si>
+    <t>Jul 17, 2023</t>
+  </si>
+  <si>
+    <t>Jul 14, 2023</t>
+  </si>
+  <si>
+    <t>Jul 13, 2023</t>
+  </si>
+  <si>
+    <t>USD Vs INR Dashboard</t>
   </si>
 </sst>
 </file>
@@ -779,304 +779,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>Jul 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Jul 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Jul 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Jul 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Jul 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Jul 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>Jul 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>Jul 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>Jul 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>Jun 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>Jun 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>Jun 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Jun 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>Jun 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>Jun 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>Jun 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>Jun 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>Jun 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>Jun 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>Jun 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>Jun 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>Jun 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>Jun 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>Jun 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>Jun 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>Jun 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>Jun 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>Jun 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Jun 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>Jun 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Jun 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>May 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>May 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>May 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>May 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>May 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>May 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>May 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>May 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>May 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>May 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>May 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>May 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>May 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>May 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>May 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>May 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>May 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>May 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>May 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>May 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>May 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>May 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>May 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Apr 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Apr 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Apr 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Apr 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Apr 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>Apr 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>Apr 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>Apr 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>Apr 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>Apr 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>Apr 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Apr 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Apr 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Apr 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Apr 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Apr 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Apr 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Apr 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Apr 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Apr 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Mar 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Mar 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Mar 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Mar 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Mar 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Mar 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>Mar 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>Mar 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Mar 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>Mar 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>Mar 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>Mar 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>Mar 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>Mar 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>Mar 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>Mar 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>Mar 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>Mar 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>Mar 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>Mar 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>Mar 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Mar 02, 2023</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Mar 01, 2023</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Feb 28, 2023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Feb 27, 2023</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Feb 24, 2023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Feb 23, 2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1088,304 +1088,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>82.254999999999995</c:v>
+                  <c:v>82.108999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>82.061599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.076800000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.001800000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.399900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>82.525300000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>82.615300000000005</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>82.7684</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>82.394099999999995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>82.007099999999994</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>81.950100000000006</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>82.096299999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>82.075400000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>82.026499999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>81.998400000000004</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>82.006500000000003</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>81.984800000000007</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>81.919300000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>81.941500000000005</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>81.991799999999998</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>81.981399999999994</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>81.9148</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>81.912700000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>82.045000000000002</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>82.290400000000005</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>82.337199999999996</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>82.444800000000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>82.488299999999995</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>82.618099999999998</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>82.517200000000003</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>82.511200000000002</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>82.409800000000004</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>82.276700000000005</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>82.666799999999995</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>82.683899999999994</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>82.579700000000003</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>82.574799999999996</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>82.742099999999994</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>82.713700000000003</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>82.890600000000006</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>82.825000000000003</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>82.904799999999994</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>82.725099999999998</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>82.450299999999999</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>82.296000000000006</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>82.2667</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>82.200299999999999</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>82.100300000000004</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>81.919899999999998</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>82.105000000000004</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>81.787099999999995</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>81.729799999999997</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>81.716099999999997</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>81.78</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>81.778700000000001</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>81.774699999999996</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>81.744799999999998</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>81.765100000000004</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>81.766900000000007</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>81.991600000000005</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>81.8523</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>82.0548</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>82.340100000000007</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>82.107900000000001</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>82.003699999999995</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>81.844800000000006</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>81.680700000000002</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>81.960599999999999</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>82.070099999999996</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>81.983900000000006</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>81.884799999999998</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>81.831299999999999</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>81.95</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>82.114800000000002</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>82.184799999999996</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>82.100499999999997</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>82.255399999999995</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>82.164299999999997</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>82.2149</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>82.338800000000006</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>82.265299999999996</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>82.525800000000004</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>82.677000000000007</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>82.5291</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>82.533000000000001</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>82.622799999999998</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>82.715699999999998</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>82.304900000000004</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>82.417400000000001</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>81.957999999999998</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>82.0184</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>81.964500000000001</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>82.074600000000004</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>81.854399999999998</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>81.712500000000006</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>82.355699999999999</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>82.419899999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>82.635400000000004</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>82.652000000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>82.918000000000006</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>82.617900000000006</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>82.835300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,304 +1418,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>Jul 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Jul 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Jul 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Jul 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Jul 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Jul 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>Jul 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>Jul 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>Jul 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>Jun 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>Jun 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>Jun 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Jun 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>Jun 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>Jun 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>Jun 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>Jun 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>Jun 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>Jun 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>Jun 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>Jun 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>Jun 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>Jun 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>Jun 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>Jun 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>Jun 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>Jun 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>Jun 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Jun 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>Jun 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Jun 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>May 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>May 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>May 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>May 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>May 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>May 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>May 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>May 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>May 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>May 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>May 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>May 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>May 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>May 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>May 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>May 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>May 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>May 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>May 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>May 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>May 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>May 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>May 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Apr 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Apr 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Apr 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Apr 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Apr 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>Apr 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>Apr 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>Apr 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>Apr 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>Apr 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>Apr 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Apr 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Apr 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Apr 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Apr 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Apr 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Apr 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Apr 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Apr 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Apr 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Mar 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Mar 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Mar 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Mar 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Mar 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Mar 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>Mar 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>Mar 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Mar 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>Mar 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>Mar 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>Mar 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>Mar 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>Mar 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>Mar 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>Mar 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>Mar 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>Mar 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>Mar 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>Mar 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>Mar 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Mar 02, 2023</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Mar 01, 2023</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Feb 28, 2023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Feb 27, 2023</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Feb 24, 2023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Feb 23, 2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1865,58 +1865,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1080.4500000000558</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>1682.100000000034</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>1825.9500000000344</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>1154.9999999999941</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>1168.6499999999996</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>1210.6500000000508</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>1524.6000000000279</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>1311.4499999999653</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>1292.5499999999347</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>395.85000000001003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>395.85000000001003</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>474.5999999999384</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>2197.6499999999887</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -1928,10 +1928,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>54.600000000021964</c:v>
+                  <c:v>474.5999999999384</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>616.35000000001833</c:v>
+                  <c:v>2197.6499999999887</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0</c:v>
@@ -1943,10 +1943,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>54.600000000021964</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>616.35000000001833</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0</c:v>
@@ -2000,10 +2000,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>373.80000000002411</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1863.7499999999463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
@@ -2015,10 +2015,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>373.80000000002411</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1863.7499999999463</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -3510,304 +3510,304 @@
               <c:strCache>
                 <c:ptCount val="101"/>
                 <c:pt idx="1">
+                  <c:v>Jul 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jul 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Jul 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Jul 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Jul 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>Jul 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>Jul 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>Jul 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>Jul 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>Jun 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>Jun 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Jun 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>Jun 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>Jun 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>Jun 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>Jun 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>Jun 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>Jun 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>Jun 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>Jun 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>Jun 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>Jun 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>Jun 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>Jun 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>Jun 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>Jun 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>Jun 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Jun 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>Jun 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Jun 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>Jun 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>May 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>May 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>May 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>May 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>May 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>May 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>May 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>May 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>May 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>May 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>May 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>May 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>May 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>May 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>May 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>May 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>May 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>May 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>May 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>May 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>May 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>May 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>May 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Apr 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Apr 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Apr 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Apr 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>Apr 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>Apr 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>Apr 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>Apr 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>Apr 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>Apr 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Apr 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Apr 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Apr 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Apr 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Apr 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Apr 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Apr 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Apr 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Apr 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Apr 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Mar 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Mar 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Mar 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Mar 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Mar 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>Mar 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>Mar 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Mar 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>Mar 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>Mar 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>Mar 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>Mar 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>Mar 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>Mar 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>Mar 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>Mar 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>Mar 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>Mar 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>Mar 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>Mar 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Mar 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="100">
                   <c:v>Mar 02, 2023</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Mar 01, 2023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Feb 28, 2023</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Feb 27, 2023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Feb 24, 2023</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Feb 23, 2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3819,304 +3819,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="1">
-                  <c:v>82.254999999999995</c:v>
+                  <c:v>82.108999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>82.061599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.076800000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.001800000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.399900000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>82.525300000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>82.615300000000005</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>82.7684</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>82.394099999999995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>82.007099999999994</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>81.950100000000006</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>82.096299999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>82.075400000000002</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>82.026499999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>81.998400000000004</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>82.006500000000003</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>81.984800000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>81.919300000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>81.941500000000005</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>81.991799999999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>81.981399999999994</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>81.9148</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>81.912700000000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>82.045000000000002</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>82.290400000000005</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>82.337199999999996</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>82.444800000000001</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>82.488299999999995</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>82.618099999999998</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>82.517200000000003</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>82.511200000000002</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>82.409800000000004</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>82.276700000000005</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>82.666799999999995</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>82.683899999999994</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>82.579700000000003</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>82.574799999999996</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>82.742099999999994</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>82.713700000000003</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>82.890600000000006</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>82.825000000000003</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>82.904799999999994</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>82.725099999999998</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>82.450299999999999</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>82.296000000000006</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>82.2667</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>82.200299999999999</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>82.100300000000004</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>81.919899999999998</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>82.105000000000004</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>81.787099999999995</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>81.729799999999997</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>81.716099999999997</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>81.78</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>81.778700000000001</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>81.774699999999996</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>81.744799999999998</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>81.765100000000004</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>81.766900000000007</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>81.991600000000005</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>81.8523</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>82.0548</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>82.340100000000007</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>82.107900000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>82.003699999999995</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>81.844800000000006</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>81.680700000000002</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>81.960599999999999</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>82.070099999999996</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>81.983900000000006</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>81.884799999999998</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>81.831299999999999</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>81.95</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>82.114800000000002</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>82.184799999999996</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>82.100499999999997</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>82.255399999999995</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>82.164299999999997</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>82.2149</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>82.338800000000006</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>82.265299999999996</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>82.525800000000004</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>82.677000000000007</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>82.5291</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>82.533000000000001</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>82.622799999999998</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>82.715699999999998</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>82.304900000000004</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>82.417400000000001</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>81.957999999999998</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>82.0184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>81.964500000000001</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>82.074600000000004</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>81.854399999999998</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>81.712500000000006</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>82.355699999999999</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="100">
                   <c:v>82.419899999999998</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>82.635400000000004</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>82.652000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>82.918000000000006</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>82.617900000000006</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>82.835300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4508,304 +4508,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>Jul 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Jul 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Jul 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Jul 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Jul 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Jul 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>Jul 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>Jul 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>Jul 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>Jun 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>Jun 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>Jun 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Jun 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>Jun 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>Jun 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>Jun 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>Jun 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>Jun 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>Jun 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>Jun 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>Jun 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>Jun 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>Jun 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>Jun 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>Jun 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>Jun 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>Jun 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>Jun 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Jun 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>Jun 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Jun 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>May 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>May 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>May 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>May 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>May 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>May 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>May 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>May 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>May 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>May 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>May 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>May 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>May 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>May 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>May 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>May 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>May 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>May 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>May 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>May 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>May 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>May 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>May 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Apr 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Apr 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Apr 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Apr 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Apr 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>Apr 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>Apr 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>Apr 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>Apr 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>Apr 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>Apr 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Apr 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Apr 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Apr 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Apr 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Apr 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Apr 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Apr 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Apr 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Apr 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Mar 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Mar 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Mar 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Mar 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Mar 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Mar 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>Mar 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>Mar 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Mar 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>Mar 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>Mar 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>Mar 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>Mar 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>Mar 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>Mar 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>Mar 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>Mar 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>Mar 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>Mar 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>Mar 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>Mar 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Mar 02, 2023</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Mar 01, 2023</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Feb 28, 2023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Feb 27, 2023</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Feb 24, 2023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Feb 23, 2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4817,304 +4817,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>82.254999999999995</c:v>
+                  <c:v>82.108999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>82.061599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.076800000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.001800000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.399900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>82.525300000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>82.615300000000005</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>82.7684</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>82.394099999999995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>82.007099999999994</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>81.950100000000006</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>82.096299999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>82.075400000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>82.026499999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>81.998400000000004</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>82.006500000000003</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>81.984800000000007</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>81.919300000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>81.941500000000005</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>81.991799999999998</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>81.981399999999994</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>81.9148</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>81.912700000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>82.045000000000002</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>82.290400000000005</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>82.337199999999996</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>82.444800000000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>82.488299999999995</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>82.618099999999998</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>82.517200000000003</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>82.511200000000002</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>82.409800000000004</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>82.276700000000005</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>82.666799999999995</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>82.683899999999994</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>82.579700000000003</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>82.574799999999996</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>82.742099999999994</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>82.713700000000003</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>82.890600000000006</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>82.825000000000003</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>82.904799999999994</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>82.725099999999998</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>82.450299999999999</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>82.296000000000006</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>82.2667</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>82.200299999999999</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>82.100300000000004</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>81.919899999999998</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>82.105000000000004</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>81.787099999999995</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>81.729799999999997</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>81.716099999999997</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>81.78</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>81.778700000000001</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>81.774699999999996</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>81.744799999999998</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>81.765100000000004</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>81.766900000000007</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>81.991600000000005</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>81.8523</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>82.0548</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>82.340100000000007</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>82.107900000000001</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>82.003699999999995</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>81.844800000000006</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>81.680700000000002</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>81.960599999999999</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>82.070099999999996</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>81.983900000000006</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>81.884799999999998</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>81.831299999999999</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>81.95</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>82.114800000000002</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>82.184799999999996</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>82.100499999999997</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>82.255399999999995</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>82.164299999999997</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>82.2149</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>82.338800000000006</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>82.265299999999996</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>82.525800000000004</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>82.677000000000007</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>82.5291</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>82.533000000000001</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>82.622799999999998</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>82.715699999999998</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>82.304900000000004</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>82.417400000000001</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>81.957999999999998</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>82.0184</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>81.964500000000001</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>82.074600000000004</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>81.854399999999998</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>81.712500000000006</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>82.355699999999999</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>82.419899999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>82.635400000000004</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>82.652000000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>82.918000000000006</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>82.617900000000006</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>82.835300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5147,304 +5147,304 @@
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>Jul 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Jul 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>Jul 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Jul 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Jul 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Jul 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>Jul 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>Jul 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>Jul 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>Jun 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>Jun 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>Jun 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Jun 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>Jun 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>Jun 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>Jun 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>Jun 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>Jun 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>Jun 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>Jun 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>Jun 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>Jun 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>Jun 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>Jun 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>Jun 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>Jun 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>Jun 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>Jun 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Jun 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>Jun 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Jun 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>May 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>May 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>May 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>May 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>May 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>May 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>May 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>May 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>May 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>May 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>May 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>May 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>May 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>May 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>May 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>May 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>May 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>May 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>May 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>May 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>May 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>May 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>May 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>Apr 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Apr 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Apr 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Apr 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Apr 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>Apr 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>Apr 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>Apr 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>Apr 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>Apr 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>Apr 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Apr 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Apr 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Apr 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Apr 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Apr 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Apr 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Apr 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Apr 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Apr 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Mar 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Mar 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Mar 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Mar 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Mar 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Mar 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>Mar 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>Mar 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Mar 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>Mar 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>Mar 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>Mar 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>Mar 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>Mar 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>Mar 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>Mar 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>Mar 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>Mar 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>Mar 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>Mar 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>Mar 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Mar 02, 2023</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Mar 01, 2023</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Feb 28, 2023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Feb 27, 2023</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Feb 24, 2023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Feb 23, 2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5594,58 +5594,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1080.4500000000558</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>1682.100000000034</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>1825.9500000000344</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>1154.9999999999941</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>1168.6499999999996</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>1210.6500000000508</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>1524.6000000000279</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>1311.4499999999653</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>1292.5499999999347</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>395.85000000001003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>395.85000000001003</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>474.5999999999384</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>2197.6499999999887</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -5657,10 +5657,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>54.600000000021964</c:v>
+                  <c:v>474.5999999999384</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>616.35000000001833</c:v>
+                  <c:v>2197.6499999999887</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0</c:v>
@@ -5672,10 +5672,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>54.600000000021964</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>616.35000000001833</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0</c:v>
@@ -5729,10 +5729,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>373.80000000002411</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1863.7499999999463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
@@ -5744,10 +5744,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>373.80000000002411</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1863.7499999999463</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -6155,304 +6155,304 @@
               <c:strCache>
                 <c:ptCount val="101"/>
                 <c:pt idx="1">
+                  <c:v>Jul 19, 2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jul 18, 2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul 17, 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul 14, 2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jul 13, 2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jul 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Jul 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Jul 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Jul 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>Jul 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>Jul 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>Jul 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>Jul 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>Jun 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>Jun 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Jun 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>Jun 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>Jun 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>Jun 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>Jun 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>Jun 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>Jun 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>Jun 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>Jun 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>Jun 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>Jun 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>Jun 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>Jun 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>Jun 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>Jun 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>Jun 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Jun 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>Jun 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Jun 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>Jun 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>May 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>May 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>May 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>May 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>May 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>May 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>May 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>May 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>May 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>May 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>May 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>May 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>May 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>May 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>May 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>May 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>May 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>May 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>May 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>May 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>May 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>May 02, 2023</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>May 01, 2023</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>Apr 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>Apr 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>Apr 26, 2023</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>Apr 25, 2023</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>Apr 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>Apr 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>Apr 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>Apr 19, 2023</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>Apr 18, 2023</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>Apr 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Apr 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Apr 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Apr 12, 2023</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Apr 11, 2023</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Apr 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Apr 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Apr 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Apr 05, 2023</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Apr 04, 2023</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Apr 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Mar 31, 2023</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Mar 30, 2023</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Mar 29, 2023</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Mar 28, 2023</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Mar 27, 2023</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>Mar 24, 2023</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>Mar 23, 2023</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Mar 22, 2023</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>Mar 21, 2023</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>Mar 20, 2023</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>Mar 17, 2023</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>Mar 16, 2023</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>Mar 15, 2023</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>Mar 14, 2023</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>Mar 13, 2023</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>Mar 10, 2023</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>Mar 09, 2023</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>Mar 08, 2023</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>Mar 07, 2023</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>Mar 06, 2023</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>Mar 03, 2023</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="100">
                   <c:v>Mar 02, 2023</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Mar 01, 2023</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Feb 28, 2023</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Feb 27, 2023</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Feb 24, 2023</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Feb 23, 2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6464,304 +6464,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="1">
-                  <c:v>82.254999999999995</c:v>
+                  <c:v>82.108999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>82.061599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.076800000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.001800000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.399900000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>82.525300000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>82.615300000000005</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>82.7684</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>82.394099999999995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>82.007099999999994</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>81.950100000000006</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>82.096299999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>82.075400000000002</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>82.026499999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>81.998400000000004</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>82.006500000000003</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>81.984800000000007</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>81.919300000000007</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>81.941500000000005</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>81.991799999999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>81.981399999999994</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>81.9148</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>81.912700000000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>82.045000000000002</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>82.290400000000005</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>82.337199999999996</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>82.444800000000001</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>82.488299999999995</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>82.618099999999998</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>82.517200000000003</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>82.511200000000002</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>82.409800000000004</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>82.276700000000005</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>82.666799999999995</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>82.683899999999994</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>82.579700000000003</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>82.574799999999996</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>82.742099999999994</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>82.713700000000003</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>82.890600000000006</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>82.825000000000003</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>82.904799999999994</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>82.725099999999998</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>82.450299999999999</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>82.296000000000006</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
                   <c:v>82.2667</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>82.200299999999999</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
                   <c:v>82.100300000000004</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
                   <c:v>81.919899999999998</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="51">
                   <c:v>82.105000000000004</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
                   <c:v>81.787099999999995</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>81.729799999999997</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="54">
                   <c:v>81.716099999999997</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
                   <c:v>81.78</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>81.778700000000001</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="57">
                   <c:v>81.774699999999996</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="58">
                   <c:v>81.744799999999998</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="59">
                   <c:v>81.765100000000004</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="60">
                   <c:v>81.766900000000007</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="61">
                   <c:v>81.991600000000005</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>81.8523</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>82.0548</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>82.340100000000007</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>82.107900000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>82.003699999999995</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="68">
                   <c:v>81.844800000000006</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>81.680700000000002</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>81.960599999999999</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>82.070099999999996</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>81.983900000000006</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>81.884799999999998</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>81.831299999999999</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>81.95</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>82.114800000000002</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>82.140900000000002</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>82.184799999999996</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>82.100499999999997</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>82.255399999999995</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>82.164299999999997</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>82.2149</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>82.338800000000006</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="84">
                   <c:v>82.265299999999996</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="85">
                   <c:v>82.525800000000004</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>82.677000000000007</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="87">
                   <c:v>82.5291</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="88">
                   <c:v>82.533000000000001</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="89">
                   <c:v>82.622799999999998</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="90">
                   <c:v>82.715699999999998</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="91">
                   <c:v>82.304900000000004</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="92">
                   <c:v>82.417400000000001</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="93">
                   <c:v>81.957999999999998</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="94">
                   <c:v>82.0184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="95">
                   <c:v>81.964500000000001</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="96">
                   <c:v>82.074600000000004</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="97">
                   <c:v>81.854399999999998</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>81.712500000000006</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>82.355699999999999</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="100">
                   <c:v>82.419899999999998</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>82.635400000000004</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>82.652000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>82.918000000000006</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>82.617900000000006</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>82.835300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13202,10 +13202,10 @@
         <v>Date</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13218,7 +13218,7 @@
     </row>
     <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E4" s="13">
         <v>0.05</v>
@@ -13228,11 +13228,11 @@
       </c>
       <c r="H4" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A2</f>
-        <v>Jul 12, 2023</v>
+        <v>Jul 19, 2023</v>
       </c>
       <c r="I4" s="11">
         <f>'Real Time Dollar Vs INR'!E2</f>
-        <v>82.254999999999995</v>
+        <v>82.108999999999995</v>
       </c>
       <c r="J4" s="11" t="e">
         <f t="dataTable" ref="J4:J103" dt2D="0" dtr="0" r1="B9" ca="1"/>
@@ -13251,11 +13251,11 @@
       </c>
       <c r="H5" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A3</f>
-        <v>Jul 11, 2023</v>
+        <v>Jul 18, 2023</v>
       </c>
       <c r="I5" s="11">
         <f>'Real Time Dollar Vs INR'!E3</f>
-        <v>82.525300000000001</v>
+        <v>82.061599999999999</v>
       </c>
       <c r="J5" s="11" t="e">
         <v>#VALUE!</v>
@@ -13264,11 +13264,11 @@
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A4</f>
-        <v>Jul 10, 2023</v>
+        <v>Jul 17, 2023</v>
       </c>
       <c r="I6" s="11">
         <f>'Real Time Dollar Vs INR'!E4</f>
-        <v>82.615300000000005</v>
+        <v>82.076800000000006</v>
       </c>
       <c r="J6" s="11" t="e">
         <v>#VALUE!</v>
@@ -13286,11 +13286,11 @@
       </c>
       <c r="H7" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A5</f>
-        <v>Jul 07, 2023</v>
+        <v>Jul 14, 2023</v>
       </c>
       <c r="I7" s="11">
         <f>'Real Time Dollar Vs INR'!E5</f>
-        <v>82.7684</v>
+        <v>82.030799999999999</v>
       </c>
       <c r="J7" s="11" t="e">
         <v>#VALUE!</v>
@@ -13299,11 +13299,11 @@
     <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A6</f>
-        <v>Jul 06, 2023</v>
+        <v>Jul 13, 2023</v>
       </c>
       <c r="I8" s="11">
         <f>'Real Time Dollar Vs INR'!E6</f>
-        <v>82.394099999999995</v>
+        <v>82.001800000000003</v>
       </c>
       <c r="J8" s="11" t="e">
         <v>#VALUE!</v>
@@ -13321,11 +13321,11 @@
       </c>
       <c r="H9" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A7</f>
-        <v>Jul 05, 2023</v>
+        <v>Jul 12, 2023</v>
       </c>
       <c r="I9" s="11">
         <f>'Real Time Dollar Vs INR'!E7</f>
-        <v>82.007099999999994</v>
+        <v>82.399900000000002</v>
       </c>
       <c r="J9" s="11" t="e">
         <v>#VALUE!</v>
@@ -13334,11 +13334,11 @@
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H10" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A8</f>
-        <v>Jul 04, 2023</v>
+        <v>Jul 11, 2023</v>
       </c>
       <c r="I10" s="11">
         <f>'Real Time Dollar Vs INR'!E8</f>
-        <v>81.950100000000006</v>
+        <v>82.525300000000001</v>
       </c>
       <c r="J10" s="11" t="e">
         <v>#VALUE!</v>
@@ -13358,11 +13358,11 @@
       </c>
       <c r="H11" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A9</f>
-        <v>Jul 03, 2023</v>
+        <v>Jul 10, 2023</v>
       </c>
       <c r="I11" s="11">
         <f>'Real Time Dollar Vs INR'!E9</f>
-        <v>82.096299999999999</v>
+        <v>82.615300000000005</v>
       </c>
       <c r="J11" s="11" t="e">
         <v>#VALUE!</v>
@@ -13371,11 +13371,11 @@
     <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H12" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A10</f>
-        <v>Jun 30, 2023</v>
+        <v>Jul 07, 2023</v>
       </c>
       <c r="I12" s="11">
         <f>'Real Time Dollar Vs INR'!E10</f>
-        <v>82.075400000000002</v>
+        <v>82.7684</v>
       </c>
       <c r="J12" s="11" t="e">
         <v>#VALUE!</v>
@@ -13393,11 +13393,11 @@
       </c>
       <c r="H13" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A11</f>
-        <v>Jun 29, 2023</v>
+        <v>Jul 06, 2023</v>
       </c>
       <c r="I13" s="11">
         <f>'Real Time Dollar Vs INR'!E11</f>
-        <v>82.026499999999999</v>
+        <v>82.394099999999995</v>
       </c>
       <c r="J13" s="11" t="e">
         <v>#VALUE!</v>
@@ -13406,11 +13406,11 @@
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H14" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A12</f>
-        <v>Jun 28, 2023</v>
+        <v>Jul 05, 2023</v>
       </c>
       <c r="I14" s="11">
         <f>'Real Time Dollar Vs INR'!E12</f>
-        <v>81.998400000000004</v>
+        <v>82.007099999999994</v>
       </c>
       <c r="J14" s="11" t="e">
         <v>#VALUE!</v>
@@ -13430,11 +13430,11 @@
       </c>
       <c r="H15" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A13</f>
-        <v>Jun 27, 2023</v>
+        <v>Jul 04, 2023</v>
       </c>
       <c r="I15" s="11">
         <f>'Real Time Dollar Vs INR'!E13</f>
-        <v>82.006500000000003</v>
+        <v>81.950100000000006</v>
       </c>
       <c r="J15" s="11" t="e">
         <v>#VALUE!</v>
@@ -13442,7 +13442,7 @@
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4">
         <f>B15*E4</f>
@@ -13454,11 +13454,11 @@
       </c>
       <c r="H16" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A14</f>
-        <v>Jun 26, 2023</v>
+        <v>Jul 03, 2023</v>
       </c>
       <c r="I16" s="11">
         <f>'Real Time Dollar Vs INR'!E14</f>
-        <v>81.984800000000007</v>
+        <v>82.096299999999999</v>
       </c>
       <c r="J16" s="11" t="e">
         <v>#VALUE!</v>
@@ -13478,11 +13478,11 @@
       </c>
       <c r="H17" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A15</f>
-        <v>Jun 23, 2023</v>
+        <v>Jun 30, 2023</v>
       </c>
       <c r="I17" s="11">
         <f>'Real Time Dollar Vs INR'!E15</f>
-        <v>81.919300000000007</v>
+        <v>82.075400000000002</v>
       </c>
       <c r="J17" s="11" t="e">
         <v>#VALUE!</v>
@@ -13491,11 +13491,11 @@
     <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A16</f>
-        <v>Jun 22, 2023</v>
+        <v>Jun 29, 2023</v>
       </c>
       <c r="I18" s="11">
         <f>'Real Time Dollar Vs INR'!E16</f>
-        <v>81.941500000000005</v>
+        <v>82.026499999999999</v>
       </c>
       <c r="J18" s="11" t="e">
         <v>#VALUE!</v>
@@ -13503,7 +13503,7 @@
     </row>
     <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4">
         <f>B15+B16+B17</f>
@@ -13515,11 +13515,11 @@
       </c>
       <c r="H19" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A17</f>
-        <v>Jun 21, 2023</v>
+        <v>Jun 28, 2023</v>
       </c>
       <c r="I19" s="11">
         <f>'Real Time Dollar Vs INR'!E17</f>
-        <v>81.991799999999998</v>
+        <v>81.998400000000004</v>
       </c>
       <c r="J19" s="11" t="e">
         <v>#VALUE!</v>
@@ -13528,11 +13528,11 @@
     <row r="20" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A18</f>
-        <v>Jun 20, 2023</v>
+        <v>Jun 27, 2023</v>
       </c>
       <c r="I20" s="11">
         <f>'Real Time Dollar Vs INR'!E18</f>
-        <v>81.981399999999994</v>
+        <v>82.006500000000003</v>
       </c>
       <c r="J20" s="11" t="e">
         <v>#VALUE!</v>
@@ -13541,11 +13541,11 @@
     <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H21" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A19</f>
-        <v>Jun 19, 2023</v>
+        <v>Jun 26, 2023</v>
       </c>
       <c r="I21" s="11">
         <f>'Real Time Dollar Vs INR'!E19</f>
-        <v>81.9148</v>
+        <v>81.984800000000007</v>
       </c>
       <c r="J21" s="11" t="e">
         <v>#VALUE!</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="22" spans="1:18" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="e">
         <f>B13*B11+E4*B13*B11</f>
@@ -13565,11 +13565,11 @@
       </c>
       <c r="H22" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A20</f>
-        <v>Jun 16, 2023</v>
+        <v>Jun 23, 2023</v>
       </c>
       <c r="I22" s="11">
         <f>'Real Time Dollar Vs INR'!E20</f>
-        <v>81.912700000000001</v>
+        <v>81.919300000000007</v>
       </c>
       <c r="J22" s="11" t="e">
         <v>#VALUE!</v>
@@ -13578,11 +13578,11 @@
     <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H23" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A21</f>
-        <v>Jun 15, 2023</v>
+        <v>Jun 22, 2023</v>
       </c>
       <c r="I23" s="11">
         <f>'Real Time Dollar Vs INR'!E21</f>
-        <v>82.045000000000002</v>
+        <v>81.941500000000005</v>
       </c>
       <c r="J23" s="11" t="e">
         <v>#VALUE!</v>
@@ -13590,7 +13590,7 @@
     </row>
     <row r="24" spans="1:18" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B24" s="4">
         <f>B15+B15*F4+B17</f>
@@ -13602,11 +13602,11 @@
       </c>
       <c r="H24" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A22</f>
-        <v>Jun 14, 2023</v>
+        <v>Jun 21, 2023</v>
       </c>
       <c r="I24" s="11">
         <f>'Real Time Dollar Vs INR'!E22</f>
-        <v>82.290400000000005</v>
+        <v>81.991799999999998</v>
       </c>
       <c r="J24" s="11" t="e">
         <v>#VALUE!</v>
@@ -13615,31 +13615,31 @@
     <row r="25" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A23</f>
-        <v>Jun 13, 2023</v>
+        <v>Jun 20, 2023</v>
       </c>
       <c r="I25" s="11">
         <f>'Real Time Dollar Vs INR'!E23</f>
-        <v>82.337199999999996</v>
+        <v>81.981399999999994</v>
       </c>
       <c r="J25" s="11" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B26" s="4">
         <f>B24-B19</f>
@@ -13651,11 +13651,11 @@
       </c>
       <c r="H26" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A24</f>
-        <v>Jun 12, 2023</v>
+        <v>Jun 19, 2023</v>
       </c>
       <c r="I26" s="11">
         <f>'Real Time Dollar Vs INR'!E24</f>
-        <v>82.444800000000001</v>
+        <v>81.9148</v>
       </c>
       <c r="J26" s="11" t="e">
         <v>#VALUE!</v>
@@ -13675,11 +13675,11 @@
     <row r="27" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H27" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A25</f>
-        <v>Jun 09, 2023</v>
+        <v>Jun 16, 2023</v>
       </c>
       <c r="I27" s="11">
         <f>'Real Time Dollar Vs INR'!E25</f>
-        <v>82.488299999999995</v>
+        <v>81.912700000000001</v>
       </c>
       <c r="J27" s="11" t="e">
         <v>#VALUE!</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="28" spans="1:18" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <f>IF(B11 = "For difference in dollar value refer cell B28",(B9-B7)*B13+(B9-B7)*B13*E4,"It's is a loss")</f>
@@ -13715,11 +13715,11 @@
       </c>
       <c r="H28" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A26</f>
-        <v>Jun 08, 2023</v>
+        <v>Jun 15, 2023</v>
       </c>
       <c r="I28" s="11">
         <f>'Real Time Dollar Vs INR'!E26</f>
-        <v>82.618099999999998</v>
+        <v>82.045000000000002</v>
       </c>
       <c r="J28" s="11" t="e">
         <v>#VALUE!</v>
@@ -13742,11 +13742,11 @@
     <row r="29" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H29" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A27</f>
-        <v>Jun 07, 2023</v>
+        <v>Jun 14, 2023</v>
       </c>
       <c r="I29" s="11">
         <f>'Real Time Dollar Vs INR'!E27</f>
-        <v>82.517200000000003</v>
+        <v>82.290400000000005</v>
       </c>
       <c r="J29" s="11" t="e">
         <v>#VALUE!</v>
@@ -13769,11 +13769,11 @@
     <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H30" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A28</f>
-        <v>Jun 06, 2023</v>
+        <v>Jun 13, 2023</v>
       </c>
       <c r="I30" s="11">
         <f>'Real Time Dollar Vs INR'!E28</f>
-        <v>82.511200000000002</v>
+        <v>82.337199999999996</v>
       </c>
       <c r="J30" s="11" t="e">
         <v>#VALUE!</v>
@@ -13796,11 +13796,11 @@
     <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H31" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A29</f>
-        <v>Jun 05, 2023</v>
+        <v>Jun 12, 2023</v>
       </c>
       <c r="I31" s="11">
         <f>'Real Time Dollar Vs INR'!E29</f>
-        <v>82.409800000000004</v>
+        <v>82.444800000000001</v>
       </c>
       <c r="J31" s="11" t="e">
         <v>#VALUE!</v>
@@ -13823,11 +13823,11 @@
     <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H32" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A30</f>
-        <v>Jun 02, 2023</v>
+        <v>Jun 09, 2023</v>
       </c>
       <c r="I32" s="11">
         <f>'Real Time Dollar Vs INR'!E30</f>
-        <v>82.276700000000005</v>
+        <v>82.488299999999995</v>
       </c>
       <c r="J32" s="11" t="e">
         <v>#VALUE!</v>
@@ -13850,11 +13850,11 @@
     <row r="33" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H33" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A31</f>
-        <v>Jun 01, 2023</v>
+        <v>Jun 08, 2023</v>
       </c>
       <c r="I33" s="11">
         <f>'Real Time Dollar Vs INR'!E31</f>
-        <v>82.666799999999995</v>
+        <v>82.618099999999998</v>
       </c>
       <c r="J33" s="11" t="e">
         <v>#VALUE!</v>
@@ -13877,11 +13877,11 @@
     <row r="34" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H34" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A32</f>
-        <v>May 31, 2023</v>
+        <v>Jun 07, 2023</v>
       </c>
       <c r="I34" s="11">
         <f>'Real Time Dollar Vs INR'!E32</f>
-        <v>82.683899999999994</v>
+        <v>82.517200000000003</v>
       </c>
       <c r="J34" s="11" t="e">
         <v>#VALUE!</v>
@@ -13904,11 +13904,11 @@
     <row r="35" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H35" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A33</f>
-        <v>May 30, 2023</v>
+        <v>Jun 06, 2023</v>
       </c>
       <c r="I35" s="11">
         <f>'Real Time Dollar Vs INR'!E33</f>
-        <v>82.579700000000003</v>
+        <v>82.511200000000002</v>
       </c>
       <c r="J35" s="11" t="e">
         <v>#VALUE!</v>
@@ -13931,11 +13931,11 @@
     <row r="36" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H36" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A34</f>
-        <v>May 29, 2023</v>
+        <v>Jun 05, 2023</v>
       </c>
       <c r="I36" s="11">
         <f>'Real Time Dollar Vs INR'!E34</f>
-        <v>82.574799999999996</v>
+        <v>82.409800000000004</v>
       </c>
       <c r="J36" s="11" t="e">
         <v>#VALUE!</v>
@@ -13958,11 +13958,11 @@
     <row r="37" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H37" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A35</f>
-        <v>May 26, 2023</v>
+        <v>Jun 02, 2023</v>
       </c>
       <c r="I37" s="11">
         <f>'Real Time Dollar Vs INR'!E35</f>
-        <v>82.742099999999994</v>
+        <v>82.276700000000005</v>
       </c>
       <c r="J37" s="11" t="e">
         <v>#VALUE!</v>
@@ -13985,11 +13985,11 @@
     <row r="38" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H38" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A36</f>
-        <v>May 25, 2023</v>
+        <v>Jun 01, 2023</v>
       </c>
       <c r="I38" s="11">
         <f>'Real Time Dollar Vs INR'!E36</f>
-        <v>82.713700000000003</v>
+        <v>82.666799999999995</v>
       </c>
       <c r="J38" s="11" t="e">
         <v>#VALUE!</v>
@@ -14012,11 +14012,11 @@
     <row r="39" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H39" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A37</f>
-        <v>May 24, 2023</v>
+        <v>May 31, 2023</v>
       </c>
       <c r="I39" s="11">
         <f>'Real Time Dollar Vs INR'!E37</f>
-        <v>82.890600000000006</v>
+        <v>82.683899999999994</v>
       </c>
       <c r="J39" s="11" t="e">
         <v>#VALUE!</v>
@@ -14039,11 +14039,11 @@
     <row r="40" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H40" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A38</f>
-        <v>May 23, 2023</v>
+        <v>May 30, 2023</v>
       </c>
       <c r="I40" s="11">
         <f>'Real Time Dollar Vs INR'!E38</f>
-        <v>82.825000000000003</v>
+        <v>82.579700000000003</v>
       </c>
       <c r="J40" s="11" t="e">
         <v>#VALUE!</v>
@@ -14066,11 +14066,11 @@
     <row r="41" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H41" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A39</f>
-        <v>May 22, 2023</v>
+        <v>May 29, 2023</v>
       </c>
       <c r="I41" s="11">
         <f>'Real Time Dollar Vs INR'!E39</f>
-        <v>82.904799999999994</v>
+        <v>82.574799999999996</v>
       </c>
       <c r="J41" s="11" t="e">
         <v>#VALUE!</v>
@@ -14093,11 +14093,11 @@
     <row r="42" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H42" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A40</f>
-        <v>May 19, 2023</v>
+        <v>May 26, 2023</v>
       </c>
       <c r="I42" s="11">
         <f>'Real Time Dollar Vs INR'!E40</f>
-        <v>82.725099999999998</v>
+        <v>82.742099999999994</v>
       </c>
       <c r="J42" s="11" t="e">
         <v>#VALUE!</v>
@@ -14120,11 +14120,11 @@
     <row r="43" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H43" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A41</f>
-        <v>May 18, 2023</v>
+        <v>May 25, 2023</v>
       </c>
       <c r="I43" s="11">
         <f>'Real Time Dollar Vs INR'!E41</f>
-        <v>82.450299999999999</v>
+        <v>82.713700000000003</v>
       </c>
       <c r="J43" s="11" t="e">
         <v>#VALUE!</v>
@@ -14147,11 +14147,11 @@
     <row r="44" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H44" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A42</f>
-        <v>May 17, 2023</v>
+        <v>May 24, 2023</v>
       </c>
       <c r="I44" s="11">
         <f>'Real Time Dollar Vs INR'!E42</f>
-        <v>82.296000000000006</v>
+        <v>82.890600000000006</v>
       </c>
       <c r="J44" s="11" t="e">
         <v>#VALUE!</v>
@@ -14174,11 +14174,11 @@
     <row r="45" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H45" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A43</f>
-        <v>May 16, 2023</v>
+        <v>May 23, 2023</v>
       </c>
       <c r="I45" s="11">
         <f>'Real Time Dollar Vs INR'!E43</f>
-        <v>82.2667</v>
+        <v>82.825000000000003</v>
       </c>
       <c r="J45" s="11" t="e">
         <v>#VALUE!</v>
@@ -14201,11 +14201,11 @@
     <row r="46" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H46" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A44</f>
-        <v>May 15, 2023</v>
+        <v>May 22, 2023</v>
       </c>
       <c r="I46" s="11">
         <f>'Real Time Dollar Vs INR'!E44</f>
-        <v>82.200299999999999</v>
+        <v>82.904799999999994</v>
       </c>
       <c r="J46" s="11" t="e">
         <v>#VALUE!</v>
@@ -14228,11 +14228,11 @@
     <row r="47" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H47" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A45</f>
-        <v>May 12, 2023</v>
+        <v>May 19, 2023</v>
       </c>
       <c r="I47" s="11">
         <f>'Real Time Dollar Vs INR'!E45</f>
-        <v>82.100300000000004</v>
+        <v>82.725099999999998</v>
       </c>
       <c r="J47" s="11" t="e">
         <v>#VALUE!</v>
@@ -14255,11 +14255,11 @@
     <row r="48" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H48" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A46</f>
-        <v>May 11, 2023</v>
+        <v>May 18, 2023</v>
       </c>
       <c r="I48" s="11">
         <f>'Real Time Dollar Vs INR'!E46</f>
-        <v>81.919899999999998</v>
+        <v>82.450299999999999</v>
       </c>
       <c r="J48" s="11" t="e">
         <v>#VALUE!</v>
@@ -14282,11 +14282,11 @@
     <row r="49" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H49" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A47</f>
-        <v>May 10, 2023</v>
+        <v>May 17, 2023</v>
       </c>
       <c r="I49" s="11">
         <f>'Real Time Dollar Vs INR'!E47</f>
-        <v>82.105000000000004</v>
+        <v>82.296000000000006</v>
       </c>
       <c r="J49" s="11" t="e">
         <v>#VALUE!</v>
@@ -14309,14 +14309,14 @@
     <row r="50" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H50" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A48</f>
-        <v>May 09, 2023</v>
+        <v>May 16, 2023</v>
       </c>
       <c r="I50" s="11">
         <f>'Real Time Dollar Vs INR'!E48</f>
-        <v>81.787099999999995</v>
-      </c>
-      <c r="J50" s="11">
-        <v>1080.4500000000558</v>
+        <v>82.2667</v>
+      </c>
+      <c r="J50" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M50" s="21">
         <f t="shared" si="0"/>
@@ -14336,14 +14336,14 @@
     <row r="51" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H51" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A49</f>
-        <v>May 08, 2023</v>
+        <v>May 15, 2023</v>
       </c>
       <c r="I51" s="11">
         <f>'Real Time Dollar Vs INR'!E49</f>
-        <v>81.729799999999997</v>
-      </c>
-      <c r="J51" s="11">
-        <v>1682.100000000034</v>
+        <v>82.200299999999999</v>
+      </c>
+      <c r="J51" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M51" s="21">
         <f t="shared" si="0"/>
@@ -14363,14 +14363,14 @@
     <row r="52" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H52" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A50</f>
-        <v>May 05, 2023</v>
+        <v>May 12, 2023</v>
       </c>
       <c r="I52" s="11">
         <f>'Real Time Dollar Vs INR'!E50</f>
-        <v>81.716099999999997</v>
-      </c>
-      <c r="J52" s="11">
-        <v>1825.9500000000344</v>
+        <v>82.100300000000004</v>
+      </c>
+      <c r="J52" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M52" s="21">
         <f t="shared" si="0"/>
@@ -14390,159 +14390,159 @@
     <row r="53" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H53" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A51</f>
-        <v>May 04, 2023</v>
+        <v>May 11, 2023</v>
       </c>
       <c r="I53" s="11">
         <f>'Real Time Dollar Vs INR'!E51</f>
-        <v>81.78</v>
-      </c>
-      <c r="J53" s="11">
-        <v>1154.9999999999941</v>
+        <v>81.919899999999998</v>
+      </c>
+      <c r="J53" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H54" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A52</f>
-        <v>May 03, 2023</v>
+        <v>May 10, 2023</v>
       </c>
       <c r="I54" s="11">
         <f>'Real Time Dollar Vs INR'!E52</f>
-        <v>81.778700000000001</v>
-      </c>
-      <c r="J54" s="11">
-        <v>1168.6499999999996</v>
+        <v>82.105000000000004</v>
+      </c>
+      <c r="J54" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H55" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A53</f>
-        <v>May 02, 2023</v>
+        <v>May 09, 2023</v>
       </c>
       <c r="I55" s="11">
         <f>'Real Time Dollar Vs INR'!E53</f>
-        <v>81.774699999999996</v>
+        <v>81.787099999999995</v>
       </c>
       <c r="J55" s="11">
-        <v>1210.6500000000508</v>
+        <v>1080.4500000000558</v>
       </c>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H56" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A54</f>
-        <v>May 01, 2023</v>
+        <v>May 08, 2023</v>
       </c>
       <c r="I56" s="11">
         <f>'Real Time Dollar Vs INR'!E54</f>
-        <v>81.744799999999998</v>
+        <v>81.729799999999997</v>
       </c>
       <c r="J56" s="11">
-        <v>1524.6000000000279</v>
+        <v>1682.100000000034</v>
       </c>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H57" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A55</f>
-        <v>Apr 28, 2023</v>
+        <v>May 05, 2023</v>
       </c>
       <c r="I57" s="11">
         <f>'Real Time Dollar Vs INR'!E55</f>
-        <v>81.765100000000004</v>
+        <v>81.716099999999997</v>
       </c>
       <c r="J57" s="11">
-        <v>1311.4499999999653</v>
+        <v>1825.9500000000344</v>
       </c>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H58" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A56</f>
-        <v>Apr 27, 2023</v>
+        <v>May 04, 2023</v>
       </c>
       <c r="I58" s="11">
         <f>'Real Time Dollar Vs INR'!E56</f>
-        <v>81.766900000000007</v>
+        <v>81.78</v>
       </c>
       <c r="J58" s="11">
-        <v>1292.5499999999347</v>
+        <v>1154.9999999999941</v>
       </c>
     </row>
     <row r="59" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H59" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A57</f>
-        <v>Apr 26, 2023</v>
+        <v>May 03, 2023</v>
       </c>
       <c r="I59" s="11">
         <f>'Real Time Dollar Vs INR'!E57</f>
-        <v>81.991600000000005</v>
-      </c>
-      <c r="J59" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.778700000000001</v>
+      </c>
+      <c r="J59" s="11">
+        <v>1168.6499999999996</v>
       </c>
     </row>
     <row r="60" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H60" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A58</f>
-        <v>Apr 25, 2023</v>
+        <v>May 02, 2023</v>
       </c>
       <c r="I60" s="11">
         <f>'Real Time Dollar Vs INR'!E58</f>
-        <v>81.8523</v>
+        <v>81.774699999999996</v>
       </c>
       <c r="J60" s="11">
-        <v>395.85000000001003</v>
+        <v>1210.6500000000508</v>
       </c>
     </row>
     <row r="61" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H61" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A59</f>
-        <v>Apr 24, 2023</v>
+        <v>May 01, 2023</v>
       </c>
       <c r="I61" s="11">
         <f>'Real Time Dollar Vs INR'!E59</f>
-        <v>82.0548</v>
-      </c>
-      <c r="J61" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.744799999999998</v>
+      </c>
+      <c r="J61" s="11">
+        <v>1524.6000000000279</v>
       </c>
     </row>
     <row r="62" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H62" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A60</f>
-        <v>Apr 21, 2023</v>
+        <v>Apr 28, 2023</v>
       </c>
       <c r="I62" s="11">
         <f>'Real Time Dollar Vs INR'!E60</f>
-        <v>82.140900000000002</v>
-      </c>
-      <c r="J62" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.765100000000004</v>
+      </c>
+      <c r="J62" s="11">
+        <v>1311.4499999999653</v>
       </c>
     </row>
     <row r="63" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H63" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A61</f>
-        <v>Apr 20, 2023</v>
+        <v>Apr 27, 2023</v>
       </c>
       <c r="I63" s="11">
         <f>'Real Time Dollar Vs INR'!E61</f>
-        <v>82.340100000000007</v>
-      </c>
-      <c r="J63" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.766900000000007</v>
+      </c>
+      <c r="J63" s="11">
+        <v>1292.5499999999347</v>
       </c>
     </row>
     <row r="64" spans="8:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H64" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A62</f>
-        <v>Apr 19, 2023</v>
+        <v>Apr 26, 2023</v>
       </c>
       <c r="I64" s="11">
         <f>'Real Time Dollar Vs INR'!E62</f>
-        <v>82.107900000000001</v>
+        <v>81.991600000000005</v>
       </c>
       <c r="J64" s="11" t="e">
         <v>#VALUE!</v>
@@ -14551,50 +14551,50 @@
     <row r="65" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H65" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A63</f>
-        <v>Apr 18, 2023</v>
+        <v>Apr 25, 2023</v>
       </c>
       <c r="I65" s="11">
         <f>'Real Time Dollar Vs INR'!E63</f>
-        <v>82.003699999999995</v>
-      </c>
-      <c r="J65" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.8523</v>
+      </c>
+      <c r="J65" s="11">
+        <v>395.85000000001003</v>
       </c>
     </row>
     <row r="66" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H66" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A64</f>
-        <v>Apr 17, 2023</v>
+        <v>Apr 24, 2023</v>
       </c>
       <c r="I66" s="11">
         <f>'Real Time Dollar Vs INR'!E64</f>
-        <v>81.844800000000006</v>
-      </c>
-      <c r="J66" s="11">
-        <v>474.5999999999384</v>
+        <v>82.0548</v>
+      </c>
+      <c r="J66" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H67" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A65</f>
-        <v>Apr 14, 2023</v>
+        <v>Apr 21, 2023</v>
       </c>
       <c r="I67" s="11">
         <f>'Real Time Dollar Vs INR'!E65</f>
-        <v>81.680700000000002</v>
-      </c>
-      <c r="J67" s="11">
-        <v>2197.6499999999887</v>
+        <v>82.140900000000002</v>
+      </c>
+      <c r="J67" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H68" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A66</f>
-        <v>Apr 13, 2023</v>
+        <v>Apr 20, 2023</v>
       </c>
       <c r="I68" s="11">
         <f>'Real Time Dollar Vs INR'!E66</f>
-        <v>81.960599999999999</v>
+        <v>82.340100000000007</v>
       </c>
       <c r="J68" s="11" t="e">
         <v>#VALUE!</v>
@@ -14603,11 +14603,11 @@
     <row r="69" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H69" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A67</f>
-        <v>Apr 12, 2023</v>
+        <v>Apr 19, 2023</v>
       </c>
       <c r="I69" s="11">
         <f>'Real Time Dollar Vs INR'!E67</f>
-        <v>82.070099999999996</v>
+        <v>82.107900000000001</v>
       </c>
       <c r="J69" s="11" t="e">
         <v>#VALUE!</v>
@@ -14616,11 +14616,11 @@
     <row r="70" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H70" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A68</f>
-        <v>Apr 11, 2023</v>
+        <v>Apr 18, 2023</v>
       </c>
       <c r="I70" s="11">
         <f>'Real Time Dollar Vs INR'!E68</f>
-        <v>81.983900000000006</v>
+        <v>82.003699999999995</v>
       </c>
       <c r="J70" s="11" t="e">
         <v>#VALUE!</v>
@@ -14629,37 +14629,37 @@
     <row r="71" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H71" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A69</f>
-        <v>Apr 10, 2023</v>
+        <v>Apr 17, 2023</v>
       </c>
       <c r="I71" s="11">
         <f>'Real Time Dollar Vs INR'!E69</f>
-        <v>81.884799999999998</v>
+        <v>81.844800000000006</v>
       </c>
       <c r="J71" s="11">
-        <v>54.600000000021964</v>
+        <v>474.5999999999384</v>
       </c>
     </row>
     <row r="72" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H72" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A70</f>
-        <v>Apr 07, 2023</v>
+        <v>Apr 14, 2023</v>
       </c>
       <c r="I72" s="11">
         <f>'Real Time Dollar Vs INR'!E70</f>
-        <v>81.831299999999999</v>
+        <v>81.680700000000002</v>
       </c>
       <c r="J72" s="11">
-        <v>616.35000000001833</v>
+        <v>2197.6499999999887</v>
       </c>
     </row>
     <row r="73" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H73" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A71</f>
-        <v>Apr 06, 2023</v>
+        <v>Apr 13, 2023</v>
       </c>
       <c r="I73" s="11">
         <f>'Real Time Dollar Vs INR'!E71</f>
-        <v>81.95</v>
+        <v>81.960599999999999</v>
       </c>
       <c r="J73" s="11" t="e">
         <v>#VALUE!</v>
@@ -14668,11 +14668,11 @@
     <row r="74" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H74" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A72</f>
-        <v>Apr 05, 2023</v>
+        <v>Apr 12, 2023</v>
       </c>
       <c r="I74" s="11">
         <f>'Real Time Dollar Vs INR'!E72</f>
-        <v>82.114800000000002</v>
+        <v>82.070099999999996</v>
       </c>
       <c r="J74" s="11" t="e">
         <v>#VALUE!</v>
@@ -14681,11 +14681,11 @@
     <row r="75" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H75" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A73</f>
-        <v>Apr 04, 2023</v>
+        <v>Apr 11, 2023</v>
       </c>
       <c r="I75" s="11">
         <f>'Real Time Dollar Vs INR'!E73</f>
-        <v>82.140900000000002</v>
+        <v>81.983900000000006</v>
       </c>
       <c r="J75" s="11" t="e">
         <v>#VALUE!</v>
@@ -14694,37 +14694,37 @@
     <row r="76" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H76" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A74</f>
-        <v>Apr 03, 2023</v>
+        <v>Apr 10, 2023</v>
       </c>
       <c r="I76" s="11">
         <f>'Real Time Dollar Vs INR'!E74</f>
-        <v>82.184799999999996</v>
-      </c>
-      <c r="J76" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.884799999999998</v>
+      </c>
+      <c r="J76" s="11">
+        <v>54.600000000021964</v>
       </c>
     </row>
     <row r="77" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H77" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A75</f>
-        <v>Mar 31, 2023</v>
+        <v>Apr 07, 2023</v>
       </c>
       <c r="I77" s="11">
         <f>'Real Time Dollar Vs INR'!E75</f>
-        <v>82.100499999999997</v>
-      </c>
-      <c r="J77" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.831299999999999</v>
+      </c>
+      <c r="J77" s="11">
+        <v>616.35000000001833</v>
       </c>
     </row>
     <row r="78" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H78" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A76</f>
-        <v>Mar 30, 2023</v>
+        <v>Apr 06, 2023</v>
       </c>
       <c r="I78" s="11">
         <f>'Real Time Dollar Vs INR'!E76</f>
-        <v>82.255399999999995</v>
+        <v>81.95</v>
       </c>
       <c r="J78" s="11" t="e">
         <v>#VALUE!</v>
@@ -14733,11 +14733,11 @@
     <row r="79" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H79" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A77</f>
-        <v>Mar 29, 2023</v>
+        <v>Apr 05, 2023</v>
       </c>
       <c r="I79" s="11">
         <f>'Real Time Dollar Vs INR'!E77</f>
-        <v>82.164299999999997</v>
+        <v>82.114800000000002</v>
       </c>
       <c r="J79" s="11" t="e">
         <v>#VALUE!</v>
@@ -14746,11 +14746,11 @@
     <row r="80" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H80" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A78</f>
-        <v>Mar 28, 2023</v>
+        <v>Apr 04, 2023</v>
       </c>
       <c r="I80" s="11">
         <f>'Real Time Dollar Vs INR'!E78</f>
-        <v>82.2149</v>
+        <v>82.140900000000002</v>
       </c>
       <c r="J80" s="11" t="e">
         <v>#VALUE!</v>
@@ -14759,11 +14759,11 @@
     <row r="81" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H81" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A79</f>
-        <v>Mar 27, 2023</v>
+        <v>Apr 03, 2023</v>
       </c>
       <c r="I81" s="11">
         <f>'Real Time Dollar Vs INR'!E79</f>
-        <v>82.338800000000006</v>
+        <v>82.184799999999996</v>
       </c>
       <c r="J81" s="11" t="e">
         <v>#VALUE!</v>
@@ -14772,11 +14772,11 @@
     <row r="82" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H82" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A80</f>
-        <v>Mar 24, 2023</v>
+        <v>Mar 31, 2023</v>
       </c>
       <c r="I82" s="11">
         <f>'Real Time Dollar Vs INR'!E80</f>
-        <v>82.265299999999996</v>
+        <v>82.100499999999997</v>
       </c>
       <c r="J82" s="11" t="e">
         <v>#VALUE!</v>
@@ -14785,11 +14785,11 @@
     <row r="83" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H83" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A81</f>
-        <v>Mar 23, 2023</v>
+        <v>Mar 30, 2023</v>
       </c>
       <c r="I83" s="11">
         <f>'Real Time Dollar Vs INR'!E81</f>
-        <v>82.525800000000004</v>
+        <v>82.255399999999995</v>
       </c>
       <c r="J83" s="11" t="e">
         <v>#VALUE!</v>
@@ -14798,11 +14798,11 @@
     <row r="84" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H84" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A82</f>
-        <v>Mar 22, 2023</v>
+        <v>Mar 29, 2023</v>
       </c>
       <c r="I84" s="11">
         <f>'Real Time Dollar Vs INR'!E82</f>
-        <v>82.677000000000007</v>
+        <v>82.164299999999997</v>
       </c>
       <c r="J84" s="11" t="e">
         <v>#VALUE!</v>
@@ -14811,11 +14811,11 @@
     <row r="85" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H85" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A83</f>
-        <v>Mar 21, 2023</v>
+        <v>Mar 28, 2023</v>
       </c>
       <c r="I85" s="11">
         <f>'Real Time Dollar Vs INR'!E83</f>
-        <v>82.5291</v>
+        <v>82.2149</v>
       </c>
       <c r="J85" s="11" t="e">
         <v>#VALUE!</v>
@@ -14824,11 +14824,11 @@
     <row r="86" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H86" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A84</f>
-        <v>Mar 20, 2023</v>
+        <v>Mar 27, 2023</v>
       </c>
       <c r="I86" s="11">
         <f>'Real Time Dollar Vs INR'!E84</f>
-        <v>82.533000000000001</v>
+        <v>82.338800000000006</v>
       </c>
       <c r="J86" s="11" t="e">
         <v>#VALUE!</v>
@@ -14837,11 +14837,11 @@
     <row r="87" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H87" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A85</f>
-        <v>Mar 17, 2023</v>
+        <v>Mar 24, 2023</v>
       </c>
       <c r="I87" s="11">
         <f>'Real Time Dollar Vs INR'!E85</f>
-        <v>82.622799999999998</v>
+        <v>82.265299999999996</v>
       </c>
       <c r="J87" s="11" t="e">
         <v>#VALUE!</v>
@@ -14850,11 +14850,11 @@
     <row r="88" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H88" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A86</f>
-        <v>Mar 16, 2023</v>
+        <v>Mar 23, 2023</v>
       </c>
       <c r="I88" s="11">
         <f>'Real Time Dollar Vs INR'!E86</f>
-        <v>82.715699999999998</v>
+        <v>82.525800000000004</v>
       </c>
       <c r="J88" s="11" t="e">
         <v>#VALUE!</v>
@@ -14863,11 +14863,11 @@
     <row r="89" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H89" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A87</f>
-        <v>Mar 15, 2023</v>
+        <v>Mar 22, 2023</v>
       </c>
       <c r="I89" s="11">
         <f>'Real Time Dollar Vs INR'!E87</f>
-        <v>82.304900000000004</v>
+        <v>82.677000000000007</v>
       </c>
       <c r="J89" s="11" t="e">
         <v>#VALUE!</v>
@@ -14876,11 +14876,11 @@
     <row r="90" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H90" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A88</f>
-        <v>Mar 14, 2023</v>
+        <v>Mar 21, 2023</v>
       </c>
       <c r="I90" s="11">
         <f>'Real Time Dollar Vs INR'!E88</f>
-        <v>82.417400000000001</v>
+        <v>82.5291</v>
       </c>
       <c r="J90" s="11" t="e">
         <v>#VALUE!</v>
@@ -14889,11 +14889,11 @@
     <row r="91" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H91" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A89</f>
-        <v>Mar 13, 2023</v>
+        <v>Mar 20, 2023</v>
       </c>
       <c r="I91" s="11">
         <f>'Real Time Dollar Vs INR'!E89</f>
-        <v>81.957999999999998</v>
+        <v>82.533000000000001</v>
       </c>
       <c r="J91" s="11" t="e">
         <v>#VALUE!</v>
@@ -14902,11 +14902,11 @@
     <row r="92" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H92" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A90</f>
-        <v>Mar 10, 2023</v>
+        <v>Mar 17, 2023</v>
       </c>
       <c r="I92" s="11">
         <f>'Real Time Dollar Vs INR'!E90</f>
-        <v>82.0184</v>
+        <v>82.622799999999998</v>
       </c>
       <c r="J92" s="11" t="e">
         <v>#VALUE!</v>
@@ -14915,11 +14915,11 @@
     <row r="93" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H93" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A91</f>
-        <v>Mar 09, 2023</v>
+        <v>Mar 16, 2023</v>
       </c>
       <c r="I93" s="11">
         <f>'Real Time Dollar Vs INR'!E91</f>
-        <v>81.964500000000001</v>
+        <v>82.715699999999998</v>
       </c>
       <c r="J93" s="11" t="e">
         <v>#VALUE!</v>
@@ -14928,11 +14928,11 @@
     <row r="94" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H94" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A92</f>
-        <v>Mar 08, 2023</v>
+        <v>Mar 15, 2023</v>
       </c>
       <c r="I94" s="11">
         <f>'Real Time Dollar Vs INR'!E92</f>
-        <v>82.074600000000004</v>
+        <v>82.304900000000004</v>
       </c>
       <c r="J94" s="11" t="e">
         <v>#VALUE!</v>
@@ -14941,37 +14941,37 @@
     <row r="95" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H95" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A93</f>
-        <v>Mar 07, 2023</v>
+        <v>Mar 14, 2023</v>
       </c>
       <c r="I95" s="11">
         <f>'Real Time Dollar Vs INR'!E93</f>
-        <v>81.854399999999998</v>
-      </c>
-      <c r="J95" s="11">
-        <v>373.80000000002411</v>
+        <v>82.417400000000001</v>
+      </c>
+      <c r="J95" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="8:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H96" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A94</f>
-        <v>Mar 06, 2023</v>
+        <v>Mar 13, 2023</v>
       </c>
       <c r="I96" s="11">
         <f>'Real Time Dollar Vs INR'!E94</f>
-        <v>81.712500000000006</v>
-      </c>
-      <c r="J96" s="11">
-        <v>1863.7499999999463</v>
+        <v>81.957999999999998</v>
+      </c>
+      <c r="J96" s="11" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H97" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A95</f>
-        <v>Mar 03, 2023</v>
+        <v>Mar 10, 2023</v>
       </c>
       <c r="I97" s="11">
         <f>'Real Time Dollar Vs INR'!E95</f>
-        <v>82.355699999999999</v>
+        <v>82.0184</v>
       </c>
       <c r="J97" s="11" t="e">
         <v>#VALUE!</v>
@@ -14980,11 +14980,11 @@
     <row r="98" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H98" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A96</f>
-        <v>Mar 02, 2023</v>
+        <v>Mar 09, 2023</v>
       </c>
       <c r="I98" s="11">
         <f>'Real Time Dollar Vs INR'!E96</f>
-        <v>82.419899999999998</v>
+        <v>81.964500000000001</v>
       </c>
       <c r="J98" s="11" t="e">
         <v>#VALUE!</v>
@@ -14993,11 +14993,11 @@
     <row r="99" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H99" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A97</f>
-        <v>Mar 01, 2023</v>
+        <v>Mar 08, 2023</v>
       </c>
       <c r="I99" s="11">
         <f>'Real Time Dollar Vs INR'!E97</f>
-        <v>82.635400000000004</v>
+        <v>82.074600000000004</v>
       </c>
       <c r="J99" s="11" t="e">
         <v>#VALUE!</v>
@@ -15006,37 +15006,37 @@
     <row r="100" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H100" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A98</f>
-        <v>Feb 28, 2023</v>
+        <v>Mar 07, 2023</v>
       </c>
       <c r="I100" s="11">
         <f>'Real Time Dollar Vs INR'!E98</f>
-        <v>82.652000000000001</v>
-      </c>
-      <c r="J100" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.854399999999998</v>
+      </c>
+      <c r="J100" s="11">
+        <v>373.80000000002411</v>
       </c>
     </row>
     <row r="101" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H101" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A99</f>
-        <v>Feb 27, 2023</v>
+        <v>Mar 06, 2023</v>
       </c>
       <c r="I101" s="11">
         <f>'Real Time Dollar Vs INR'!E99</f>
-        <v>82.918000000000006</v>
-      </c>
-      <c r="J101" s="11" t="e">
-        <v>#VALUE!</v>
+        <v>81.712500000000006</v>
+      </c>
+      <c r="J101" s="11">
+        <v>1863.7499999999463</v>
       </c>
     </row>
     <row r="102" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H102" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A100</f>
-        <v>Feb 24, 2023</v>
+        <v>Mar 03, 2023</v>
       </c>
       <c r="I102" s="11">
         <f>'Real Time Dollar Vs INR'!E100</f>
-        <v>82.617900000000006</v>
+        <v>82.355699999999999</v>
       </c>
       <c r="J102" s="11" t="e">
         <v>#VALUE!</v>
@@ -15045,11 +15045,11 @@
     <row r="103" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H103" s="11" t="str">
         <f>'Real Time Dollar Vs INR'!A101</f>
-        <v>Feb 23, 2023</v>
+        <v>Mar 02, 2023</v>
       </c>
       <c r="I103" s="11">
         <f>'Real Time Dollar Vs INR'!E101</f>
-        <v>82.835300000000004</v>
+        <v>82.419899999999998</v>
       </c>
       <c r="J103" s="11" t="e">
         <v>#VALUE!</v>
@@ -15449,22 +15449,22 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10">
-        <v>82.375</v>
+        <v>82.04</v>
       </c>
       <c r="C2" s="10">
-        <v>82.375</v>
+        <v>82.144999999999996</v>
       </c>
       <c r="D2" s="10">
-        <v>82.225999999999999</v>
+        <v>82.031999999999996</v>
       </c>
       <c r="E2" s="10">
-        <v>82.254999999999995</v>
+        <v>82.108999999999995</v>
       </c>
       <c r="F2" s="10">
-        <v>82.254999999999995</v>
+        <v>82.108999999999995</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>20</v>
@@ -15472,22 +15472,22 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="10">
-        <v>82.525300000000001</v>
+        <v>82.061599999999999</v>
       </c>
       <c r="C3" s="10">
-        <v>82.633300000000006</v>
+        <v>82.091200000000001</v>
       </c>
       <c r="D3" s="10">
-        <v>81.266900000000007</v>
+        <v>81.963999999999999</v>
       </c>
       <c r="E3" s="10">
-        <v>82.525300000000001</v>
+        <v>82.061599999999999</v>
       </c>
       <c r="F3" s="10">
-        <v>82.525300000000001</v>
+        <v>82.061599999999999</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>20</v>
@@ -15495,22 +15495,22 @@
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="10">
-        <v>82.615300000000005</v>
+        <v>82.076800000000006</v>
       </c>
       <c r="C4" s="10">
-        <v>82.715299999999999</v>
+        <v>82.197599999999994</v>
       </c>
       <c r="D4" s="10">
-        <v>82.5505</v>
+        <v>81.998099999999994</v>
       </c>
       <c r="E4" s="10">
-        <v>82.615300000000005</v>
+        <v>82.076800000000006</v>
       </c>
       <c r="F4" s="10">
-        <v>82.615300000000005</v>
+        <v>82.076800000000006</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>20</v>
@@ -15518,22 +15518,22 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B5" s="10">
-        <v>82.7684</v>
+        <v>82.030799999999999</v>
       </c>
       <c r="C5" s="10">
-        <v>82.768299999999996</v>
+        <v>82.192599999999999</v>
       </c>
       <c r="D5" s="10">
-        <v>82.534000000000006</v>
+        <v>81.927999999999997</v>
       </c>
       <c r="E5" s="10">
-        <v>82.7684</v>
+        <v>82.030799999999999</v>
       </c>
       <c r="F5" s="10">
-        <v>82.7684</v>
+        <v>82.030799999999999</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>20</v>
@@ -15541,22 +15541,22 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10">
-        <v>82.394099999999995</v>
+        <v>82.001800000000003</v>
       </c>
       <c r="C6" s="10">
-        <v>82.823800000000006</v>
+        <v>82.141300000000001</v>
       </c>
       <c r="D6" s="10">
-        <v>82.283500000000004</v>
+        <v>81.953500000000005</v>
       </c>
       <c r="E6" s="10">
-        <v>82.394099999999995</v>
+        <v>82.001800000000003</v>
       </c>
       <c r="F6" s="10">
-        <v>82.394099999999995</v>
+        <v>82.001800000000003</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>20</v>
@@ -15564,22 +15564,22 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B7" s="10">
-        <v>82.007099999999994</v>
+        <v>82.399900000000002</v>
       </c>
       <c r="C7" s="10">
-        <v>82.348200000000006</v>
+        <v>82.463999999999999</v>
       </c>
       <c r="D7" s="10">
-        <v>81.978099999999998</v>
+        <v>81.972200000000001</v>
       </c>
       <c r="E7" s="10">
-        <v>82.007099999999994</v>
+        <v>82.399900000000002</v>
       </c>
       <c r="F7" s="10">
-        <v>82.007099999999994</v>
+        <v>82.399900000000002</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>20</v>
@@ -15587,22 +15587,22 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B8" s="10">
-        <v>81.950100000000006</v>
+        <v>82.525300000000001</v>
       </c>
       <c r="C8" s="10">
-        <v>82.025599999999997</v>
+        <v>82.633300000000006</v>
       </c>
       <c r="D8" s="10">
-        <v>81.866699999999994</v>
+        <v>81.266900000000007</v>
       </c>
       <c r="E8" s="10">
-        <v>81.950100000000006</v>
+        <v>82.525300000000001</v>
       </c>
       <c r="F8" s="10">
-        <v>81.950100000000006</v>
+        <v>82.525300000000001</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>20</v>
@@ -15610,22 +15610,22 @@
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B9" s="10">
-        <v>82.096299999999999</v>
+        <v>82.615300000000005</v>
       </c>
       <c r="C9" s="10">
-        <v>82.112399999999994</v>
+        <v>82.715299999999999</v>
       </c>
       <c r="D9" s="10">
-        <v>81.766199999999998</v>
+        <v>82.5505</v>
       </c>
       <c r="E9" s="10">
-        <v>82.096299999999999</v>
+        <v>82.615300000000005</v>
       </c>
       <c r="F9" s="10">
-        <v>82.096299999999999</v>
+        <v>82.615300000000005</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
@@ -15633,22 +15633,22 @@
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B10" s="10">
-        <v>82.075400000000002</v>
+        <v>82.7684</v>
       </c>
       <c r="C10" s="10">
-        <v>82.196299999999994</v>
+        <v>82.768299999999996</v>
       </c>
       <c r="D10" s="10">
-        <v>82.008099999999999</v>
+        <v>82.534000000000006</v>
       </c>
       <c r="E10" s="10">
-        <v>82.075400000000002</v>
+        <v>82.7684</v>
       </c>
       <c r="F10" s="10">
-        <v>82.075400000000002</v>
+        <v>82.7684</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>20</v>
@@ -15656,22 +15656,22 @@
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10">
-        <v>82.026499999999999</v>
+        <v>82.394099999999995</v>
       </c>
       <c r="C11" s="10">
-        <v>82.212500000000006</v>
+        <v>82.823800000000006</v>
       </c>
       <c r="D11" s="10">
-        <v>81.997</v>
+        <v>82.283500000000004</v>
       </c>
       <c r="E11" s="10">
-        <v>82.026499999999999</v>
+        <v>82.394099999999995</v>
       </c>
       <c r="F11" s="10">
-        <v>82.026499999999999</v>
+        <v>82.394099999999995</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>20</v>
@@ -15679,22 +15679,22 @@
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B12" s="10">
-        <v>81.998400000000004</v>
+        <v>82.007099999999994</v>
       </c>
       <c r="C12" s="10">
-        <v>82.085499999999996</v>
+        <v>82.348200000000006</v>
       </c>
       <c r="D12" s="10">
-        <v>81.961100000000002</v>
+        <v>81.978099999999998</v>
       </c>
       <c r="E12" s="10">
-        <v>81.998400000000004</v>
+        <v>82.007099999999994</v>
       </c>
       <c r="F12" s="10">
-        <v>81.998400000000004</v>
+        <v>82.007099999999994</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>20</v>
@@ -15702,22 +15702,22 @@
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B13" s="10">
-        <v>82.006500000000003</v>
+        <v>81.950100000000006</v>
       </c>
       <c r="C13" s="10">
-        <v>82.042199999999994</v>
+        <v>82.025599999999997</v>
       </c>
       <c r="D13" s="10">
-        <v>81.942999999999998</v>
+        <v>81.866699999999994</v>
       </c>
       <c r="E13" s="10">
-        <v>82.006500000000003</v>
+        <v>81.950100000000006</v>
       </c>
       <c r="F13" s="10">
-        <v>82.006500000000003</v>
+        <v>81.950100000000006</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>20</v>
@@ -15725,22 +15725,22 @@
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B14" s="10">
-        <v>81.984800000000007</v>
+        <v>82.096299999999999</v>
       </c>
       <c r="C14" s="10">
-        <v>82.072999999999993</v>
+        <v>82.112399999999994</v>
       </c>
       <c r="D14" s="10">
-        <v>81.943100000000001</v>
+        <v>81.766199999999998</v>
       </c>
       <c r="E14" s="10">
-        <v>81.984800000000007</v>
+        <v>82.096299999999999</v>
       </c>
       <c r="F14" s="10">
-        <v>81.984800000000007</v>
+        <v>82.096299999999999</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>20</v>
@@ -15748,22 +15748,22 @@
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B15" s="10">
-        <v>81.919300000000007</v>
+        <v>82.075400000000002</v>
       </c>
       <c r="C15" s="10">
-        <v>82.078500000000005</v>
+        <v>82.196299999999994</v>
       </c>
       <c r="D15" s="10">
-        <v>81.924899999999994</v>
+        <v>82.008099999999999</v>
       </c>
       <c r="E15" s="10">
-        <v>81.919300000000007</v>
+        <v>82.075400000000002</v>
       </c>
       <c r="F15" s="10">
-        <v>81.919300000000007</v>
+        <v>82.075400000000002</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>20</v>
@@ -15771,22 +15771,22 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B16" s="10">
-        <v>81.941500000000005</v>
+        <v>82.026499999999999</v>
       </c>
       <c r="C16" s="10">
-        <v>82.083799999999997</v>
+        <v>82.212500000000006</v>
       </c>
       <c r="D16" s="10">
-        <v>81.8874</v>
+        <v>81.997</v>
       </c>
       <c r="E16" s="10">
-        <v>81.941500000000005</v>
+        <v>82.026499999999999</v>
       </c>
       <c r="F16" s="10">
-        <v>81.941500000000005</v>
+        <v>82.026499999999999</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>20</v>
@@ -15794,22 +15794,22 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B17" s="10">
-        <v>81.991799999999998</v>
+        <v>81.998400000000004</v>
       </c>
       <c r="C17" s="10">
-        <v>82.127300000000005</v>
+        <v>82.085499999999996</v>
       </c>
       <c r="D17" s="10">
-        <v>81.947000000000003</v>
+        <v>81.961100000000002</v>
       </c>
       <c r="E17" s="10">
-        <v>81.991799999999998</v>
+        <v>81.998400000000004</v>
       </c>
       <c r="F17" s="10">
-        <v>81.991799999999998</v>
+        <v>81.998400000000004</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>20</v>
@@ -15817,22 +15817,22 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B18" s="10">
-        <v>81.981399999999994</v>
+        <v>82.006500000000003</v>
       </c>
       <c r="C18" s="10">
-        <v>82.1648</v>
+        <v>82.042199999999994</v>
       </c>
       <c r="D18" s="10">
-        <v>81.915300000000002</v>
+        <v>81.942999999999998</v>
       </c>
       <c r="E18" s="10">
-        <v>81.981399999999994</v>
+        <v>82.006500000000003</v>
       </c>
       <c r="F18" s="10">
-        <v>81.981399999999994</v>
+        <v>82.006500000000003</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>20</v>
@@ -15840,22 +15840,22 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B19" s="10">
-        <v>81.9148</v>
+        <v>81.984800000000007</v>
       </c>
       <c r="C19" s="10">
-        <v>82.001999999999995</v>
+        <v>82.072999999999993</v>
       </c>
       <c r="D19" s="10">
-        <v>81.893000000000001</v>
+        <v>81.943100000000001</v>
       </c>
       <c r="E19" s="10">
-        <v>81.9148</v>
+        <v>81.984800000000007</v>
       </c>
       <c r="F19" s="10">
-        <v>81.9148</v>
+        <v>81.984800000000007</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>20</v>
@@ -15863,22 +15863,22 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B20" s="10">
-        <v>81.912700000000001</v>
+        <v>81.919300000000007</v>
       </c>
       <c r="C20" s="10">
-        <v>82.015900000000002</v>
+        <v>82.078500000000005</v>
       </c>
       <c r="D20" s="10">
-        <v>81.851299999999995</v>
+        <v>81.924899999999994</v>
       </c>
       <c r="E20" s="10">
-        <v>81.912700000000001</v>
+        <v>81.919300000000007</v>
       </c>
       <c r="F20" s="10">
-        <v>81.912700000000001</v>
+        <v>81.919300000000007</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>20</v>
@@ -15886,22 +15886,22 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B21" s="10">
-        <v>82.045000000000002</v>
+        <v>81.941500000000005</v>
       </c>
       <c r="C21" s="10">
-        <v>82.263199999999998</v>
+        <v>82.083799999999997</v>
       </c>
       <c r="D21" s="10">
-        <v>81.936000000000007</v>
+        <v>81.8874</v>
       </c>
       <c r="E21" s="10">
-        <v>82.045000000000002</v>
+        <v>81.941500000000005</v>
       </c>
       <c r="F21" s="10">
-        <v>82.045000000000002</v>
+        <v>81.941500000000005</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>20</v>
@@ -15909,22 +15909,22 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B22" s="10">
-        <v>82.290400000000005</v>
+        <v>81.991799999999998</v>
       </c>
       <c r="C22" s="10">
-        <v>82.325000000000003</v>
+        <v>82.127300000000005</v>
       </c>
       <c r="D22" s="10">
-        <v>81.930999999999997</v>
+        <v>81.947000000000003</v>
       </c>
       <c r="E22" s="10">
-        <v>82.290400000000005</v>
+        <v>81.991799999999998</v>
       </c>
       <c r="F22" s="10">
-        <v>82.290400000000005</v>
+        <v>81.991799999999998</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>20</v>
@@ -15932,22 +15932,22 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B23" s="10">
-        <v>82.337199999999996</v>
+        <v>81.981399999999994</v>
       </c>
       <c r="C23" s="10">
-        <v>82.490300000000005</v>
+        <v>82.1648</v>
       </c>
       <c r="D23" s="10">
-        <v>82.152000000000001</v>
+        <v>81.915300000000002</v>
       </c>
       <c r="E23" s="10">
-        <v>82.337199999999996</v>
+        <v>81.981399999999994</v>
       </c>
       <c r="F23" s="10">
-        <v>82.337199999999996</v>
+        <v>81.981399999999994</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>20</v>
@@ -15955,22 +15955,22 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B24" s="10">
-        <v>82.444800000000001</v>
+        <v>81.9148</v>
       </c>
       <c r="C24" s="10">
-        <v>82.555300000000003</v>
+        <v>82.001999999999995</v>
       </c>
       <c r="D24" s="10">
-        <v>82.385400000000004</v>
+        <v>81.893000000000001</v>
       </c>
       <c r="E24" s="10">
-        <v>82.444800000000001</v>
+        <v>81.9148</v>
       </c>
       <c r="F24" s="10">
-        <v>82.444800000000001</v>
+        <v>81.9148</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>20</v>
@@ -15978,22 +15978,22 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B25" s="10">
-        <v>82.488299999999995</v>
+        <v>81.912700000000001</v>
       </c>
       <c r="C25" s="10">
-        <v>82.520799999999994</v>
+        <v>82.015900000000002</v>
       </c>
       <c r="D25" s="10">
-        <v>82.412999999999997</v>
+        <v>81.851299999999995</v>
       </c>
       <c r="E25" s="10">
-        <v>82.488299999999995</v>
+        <v>81.912700000000001</v>
       </c>
       <c r="F25" s="10">
-        <v>82.488299999999995</v>
+        <v>81.912700000000001</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>20</v>
@@ -16001,22 +16001,22 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="B26" s="10">
-        <v>82.618099999999998</v>
+        <v>82.045000000000002</v>
       </c>
       <c r="C26" s="10">
-        <v>82.646799999999999</v>
+        <v>82.263199999999998</v>
       </c>
       <c r="D26" s="10">
-        <v>82.468999999999994</v>
+        <v>81.936000000000007</v>
       </c>
       <c r="E26" s="10">
-        <v>82.618099999999998</v>
+        <v>82.045000000000002</v>
       </c>
       <c r="F26" s="10">
-        <v>82.618099999999998</v>
+        <v>82.045000000000002</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>20</v>
@@ -16024,22 +16024,22 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B27" s="10">
-        <v>82.517200000000003</v>
+        <v>82.290400000000005</v>
       </c>
       <c r="C27" s="10">
-        <v>82.622399999999999</v>
+        <v>82.325000000000003</v>
       </c>
       <c r="D27" s="10">
-        <v>82.466999999999999</v>
+        <v>81.930999999999997</v>
       </c>
       <c r="E27" s="10">
-        <v>82.517200000000003</v>
+        <v>82.290400000000005</v>
       </c>
       <c r="F27" s="10">
-        <v>82.517200000000003</v>
+        <v>82.290400000000005</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>20</v>
@@ -16047,22 +16047,22 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B28" s="10">
-        <v>82.511200000000002</v>
+        <v>82.337199999999996</v>
       </c>
       <c r="C28" s="10">
-        <v>82.647999999999996</v>
+        <v>82.490300000000005</v>
       </c>
       <c r="D28" s="10">
-        <v>82.476500000000001</v>
+        <v>82.152000000000001</v>
       </c>
       <c r="E28" s="10">
-        <v>82.511200000000002</v>
+        <v>82.337199999999996</v>
       </c>
       <c r="F28" s="10">
-        <v>82.511200000000002</v>
+        <v>82.337199999999996</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>20</v>
@@ -16070,22 +16070,22 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B29" s="10">
-        <v>82.409800000000004</v>
+        <v>82.444800000000001</v>
       </c>
       <c r="C29" s="10">
-        <v>82.6845</v>
+        <v>82.555300000000003</v>
       </c>
       <c r="D29" s="10">
-        <v>82.381</v>
+        <v>82.385400000000004</v>
       </c>
       <c r="E29" s="10">
-        <v>82.409800000000004</v>
+        <v>82.444800000000001</v>
       </c>
       <c r="F29" s="10">
-        <v>82.409800000000004</v>
+        <v>82.444800000000001</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>20</v>
@@ -16093,22 +16093,22 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B30" s="10">
-        <v>82.276700000000005</v>
+        <v>82.488299999999995</v>
       </c>
       <c r="C30" s="10">
-        <v>82.431799999999996</v>
+        <v>82.520799999999994</v>
       </c>
       <c r="D30" s="10">
-        <v>82.234499999999997</v>
+        <v>82.412999999999997</v>
       </c>
       <c r="E30" s="10">
-        <v>82.276700000000005</v>
+        <v>82.488299999999995</v>
       </c>
       <c r="F30" s="10">
-        <v>82.276700000000005</v>
+        <v>82.488299999999995</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>20</v>
@@ -16116,22 +16116,22 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B31" s="10">
-        <v>82.666799999999995</v>
+        <v>82.618099999999998</v>
       </c>
       <c r="C31" s="10">
-        <v>82.712000000000003</v>
+        <v>82.646799999999999</v>
       </c>
       <c r="D31" s="10">
-        <v>82.314499999999995</v>
+        <v>82.468999999999994</v>
       </c>
       <c r="E31" s="10">
-        <v>82.666799999999995</v>
+        <v>82.618099999999998</v>
       </c>
       <c r="F31" s="10">
-        <v>82.666799999999995</v>
+        <v>82.618099999999998</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>20</v>
@@ -16139,22 +16139,22 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32" s="10">
-        <v>82.683899999999994</v>
+        <v>82.517200000000003</v>
       </c>
       <c r="C32" s="10">
-        <v>82.752600000000001</v>
+        <v>82.622399999999999</v>
       </c>
       <c r="D32" s="10">
-        <v>82.620099999999994</v>
+        <v>82.466999999999999</v>
       </c>
       <c r="E32" s="10">
-        <v>82.683899999999994</v>
+        <v>82.517200000000003</v>
       </c>
       <c r="F32" s="10">
-        <v>82.683899999999994</v>
+        <v>82.517200000000003</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>20</v>
@@ -16162,22 +16162,22 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" s="10">
-        <v>82.579700000000003</v>
+        <v>82.511200000000002</v>
       </c>
       <c r="C33" s="10">
-        <v>82.784499999999994</v>
+        <v>82.647999999999996</v>
       </c>
       <c r="D33" s="10">
-        <v>82.53</v>
+        <v>82.476500000000001</v>
       </c>
       <c r="E33" s="10">
-        <v>82.579700000000003</v>
+        <v>82.511200000000002</v>
       </c>
       <c r="F33" s="10">
-        <v>82.579700000000003</v>
+        <v>82.511200000000002</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>20</v>
@@ -16185,22 +16185,22 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B34" s="10">
-        <v>82.574799999999996</v>
+        <v>82.409800000000004</v>
       </c>
       <c r="C34" s="10">
-        <v>82.737700000000004</v>
+        <v>82.6845</v>
       </c>
       <c r="D34" s="10">
-        <v>82.508799999999994</v>
+        <v>82.381</v>
       </c>
       <c r="E34" s="10">
-        <v>82.574799999999996</v>
+        <v>82.409800000000004</v>
       </c>
       <c r="F34" s="10">
-        <v>82.574799999999996</v>
+        <v>82.409800000000004</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>20</v>
@@ -16208,22 +16208,22 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B35" s="10">
-        <v>82.742099999999994</v>
+        <v>82.276700000000005</v>
       </c>
       <c r="C35" s="10">
-        <v>82.81</v>
+        <v>82.431799999999996</v>
       </c>
       <c r="D35" s="10">
-        <v>82.533699999999996</v>
+        <v>82.234499999999997</v>
       </c>
       <c r="E35" s="10">
-        <v>82.742099999999994</v>
+        <v>82.276700000000005</v>
       </c>
       <c r="F35" s="10">
-        <v>82.742099999999994</v>
+        <v>82.276700000000005</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>20</v>
@@ -16231,22 +16231,22 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B36" s="10">
-        <v>82.713700000000003</v>
+        <v>82.666799999999995</v>
       </c>
       <c r="C36" s="10">
-        <v>82.809700000000007</v>
+        <v>82.712000000000003</v>
       </c>
       <c r="D36" s="10">
-        <v>82.640500000000003</v>
+        <v>82.314499999999995</v>
       </c>
       <c r="E36" s="10">
-        <v>82.713700000000003</v>
+        <v>82.666799999999995</v>
       </c>
       <c r="F36" s="10">
-        <v>82.713700000000003</v>
+        <v>82.666799999999995</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>20</v>
@@ -16254,22 +16254,22 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B37" s="10">
-        <v>82.890600000000006</v>
+        <v>82.683899999999994</v>
       </c>
       <c r="C37" s="10">
-        <v>82.941000000000003</v>
+        <v>82.752600000000001</v>
       </c>
       <c r="D37" s="10">
-        <v>82.574799999999996</v>
+        <v>82.620099999999994</v>
       </c>
       <c r="E37" s="10">
-        <v>82.890600000000006</v>
+        <v>82.683899999999994</v>
       </c>
       <c r="F37" s="10">
-        <v>82.890600000000006</v>
+        <v>82.683899999999994</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>20</v>
@@ -16277,22 +16277,22 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B38" s="10">
-        <v>82.825000000000003</v>
+        <v>82.579700000000003</v>
       </c>
       <c r="C38" s="10">
-        <v>82.877300000000005</v>
+        <v>82.784499999999994</v>
       </c>
       <c r="D38" s="10">
-        <v>82.757000000000005</v>
+        <v>82.53</v>
       </c>
       <c r="E38" s="10">
-        <v>82.825000000000003</v>
+        <v>82.579700000000003</v>
       </c>
       <c r="F38" s="10">
-        <v>82.825000000000003</v>
+        <v>82.579700000000003</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>20</v>
@@ -16300,22 +16300,22 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B39" s="10">
-        <v>82.904799999999994</v>
+        <v>82.574799999999996</v>
       </c>
       <c r="C39" s="10">
-        <v>82.905100000000004</v>
+        <v>82.737700000000004</v>
       </c>
       <c r="D39" s="10">
-        <v>82.73</v>
+        <v>82.508799999999994</v>
       </c>
       <c r="E39" s="10">
-        <v>82.904799999999994</v>
+        <v>82.574799999999996</v>
       </c>
       <c r="F39" s="10">
-        <v>82.904799999999994</v>
+        <v>82.574799999999996</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>20</v>
@@ -16323,22 +16323,22 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B40" s="10">
-        <v>82.725099999999998</v>
+        <v>82.742099999999994</v>
       </c>
       <c r="C40" s="10">
-        <v>82.949399999999997</v>
+        <v>82.81</v>
       </c>
       <c r="D40" s="10">
-        <v>82.637</v>
+        <v>82.533699999999996</v>
       </c>
       <c r="E40" s="10">
-        <v>82.725099999999998</v>
+        <v>82.742099999999994</v>
       </c>
       <c r="F40" s="10">
-        <v>82.725099999999998</v>
+        <v>82.742099999999994</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>20</v>
@@ -16346,22 +16346,22 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B41" s="10">
-        <v>82.450299999999999</v>
+        <v>82.713700000000003</v>
       </c>
       <c r="C41" s="10">
-        <v>82.791499999999999</v>
+        <v>82.809700000000007</v>
       </c>
       <c r="D41" s="10">
-        <v>82.342500000000001</v>
+        <v>82.640500000000003</v>
       </c>
       <c r="E41" s="10">
-        <v>82.450299999999999</v>
+        <v>82.713700000000003</v>
       </c>
       <c r="F41" s="10">
-        <v>82.450299999999999</v>
+        <v>82.713700000000003</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>20</v>
@@ -16369,22 +16369,22 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B42" s="10">
-        <v>82.296000000000006</v>
+        <v>82.890600000000006</v>
       </c>
       <c r="C42" s="10">
-        <v>82.448300000000003</v>
+        <v>82.941000000000003</v>
       </c>
       <c r="D42" s="10">
-        <v>82.25</v>
+        <v>82.574799999999996</v>
       </c>
       <c r="E42" s="10">
-        <v>82.296000000000006</v>
+        <v>82.890600000000006</v>
       </c>
       <c r="F42" s="10">
-        <v>82.296000000000006</v>
+        <v>82.890600000000006</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>20</v>
@@ -16392,22 +16392,22 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43" s="10">
-        <v>82.2667</v>
+        <v>82.825000000000003</v>
       </c>
       <c r="C43" s="10">
-        <v>82.314499999999995</v>
+        <v>82.877300000000005</v>
       </c>
       <c r="D43" s="10">
-        <v>82.158000000000001</v>
+        <v>82.757000000000005</v>
       </c>
       <c r="E43" s="10">
-        <v>82.2667</v>
+        <v>82.825000000000003</v>
       </c>
       <c r="F43" s="10">
-        <v>82.2667</v>
+        <v>82.825000000000003</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>20</v>
@@ -16415,22 +16415,22 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B44" s="10">
-        <v>82.200299999999999</v>
+        <v>82.904799999999994</v>
       </c>
       <c r="C44" s="10">
-        <v>82.373599999999996</v>
+        <v>82.905100000000004</v>
       </c>
       <c r="D44" s="10">
-        <v>82.183999999999997</v>
+        <v>82.73</v>
       </c>
       <c r="E44" s="10">
-        <v>82.200299999999999</v>
+        <v>82.904799999999994</v>
       </c>
       <c r="F44" s="10">
-        <v>82.200299999999999</v>
+        <v>82.904799999999994</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>20</v>
@@ -16438,22 +16438,22 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B45" s="10">
-        <v>82.100300000000004</v>
+        <v>82.725099999999998</v>
       </c>
       <c r="C45" s="10">
-        <v>82.2256</v>
+        <v>82.949399999999997</v>
       </c>
       <c r="D45" s="10">
-        <v>82.064999999999998</v>
+        <v>82.637</v>
       </c>
       <c r="E45" s="10">
-        <v>82.100300000000004</v>
+        <v>82.725099999999998</v>
       </c>
       <c r="F45" s="10">
-        <v>82.100300000000004</v>
+        <v>82.725099999999998</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>20</v>
@@ -16461,22 +16461,22 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B46" s="10">
-        <v>81.919899999999998</v>
+        <v>82.450299999999999</v>
       </c>
       <c r="C46" s="10">
-        <v>82.178600000000003</v>
+        <v>82.791499999999999</v>
       </c>
       <c r="D46" s="10">
-        <v>81.781499999999994</v>
+        <v>82.342500000000001</v>
       </c>
       <c r="E46" s="10">
-        <v>81.919899999999998</v>
+        <v>82.450299999999999</v>
       </c>
       <c r="F46" s="10">
-        <v>81.919899999999998</v>
+        <v>82.450299999999999</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>20</v>
@@ -16484,22 +16484,22 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B47" s="10">
-        <v>82.105000000000004</v>
+        <v>82.296000000000006</v>
       </c>
       <c r="C47" s="10">
-        <v>82.212800000000001</v>
+        <v>82.448300000000003</v>
       </c>
       <c r="D47" s="10">
-        <v>81.866</v>
+        <v>82.25</v>
       </c>
       <c r="E47" s="10">
-        <v>82.105000000000004</v>
+        <v>82.296000000000006</v>
       </c>
       <c r="F47" s="10">
-        <v>82.105000000000004</v>
+        <v>82.296000000000006</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>20</v>
@@ -16507,22 +16507,22 @@
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B48" s="10">
-        <v>81.787099999999995</v>
+        <v>82.2667</v>
       </c>
       <c r="C48" s="10">
-        <v>82.148499999999999</v>
+        <v>82.314499999999995</v>
       </c>
       <c r="D48" s="10">
-        <v>81.775000000000006</v>
+        <v>82.158000000000001</v>
       </c>
       <c r="E48" s="10">
-        <v>81.787099999999995</v>
+        <v>82.2667</v>
       </c>
       <c r="F48" s="10">
-        <v>81.787099999999995</v>
+        <v>82.2667</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>20</v>
@@ -16530,22 +16530,22 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B49" s="10">
-        <v>81.729799999999997</v>
+        <v>82.200299999999999</v>
       </c>
       <c r="C49" s="10">
-        <v>81.825299999999999</v>
+        <v>82.373599999999996</v>
       </c>
       <c r="D49" s="10">
-        <v>81.673400000000001</v>
+        <v>82.183999999999997</v>
       </c>
       <c r="E49" s="10">
-        <v>81.729799999999997</v>
+        <v>82.200299999999999</v>
       </c>
       <c r="F49" s="10">
-        <v>81.729799999999997</v>
+        <v>82.200299999999999</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>20</v>
@@ -16553,22 +16553,22 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B50" s="10">
-        <v>81.716099999999997</v>
+        <v>82.100300000000004</v>
       </c>
       <c r="C50" s="10">
-        <v>81.8172</v>
+        <v>82.2256</v>
       </c>
       <c r="D50" s="10">
-        <v>81.645499999999998</v>
+        <v>82.064999999999998</v>
       </c>
       <c r="E50" s="10">
-        <v>81.716099999999997</v>
+        <v>82.100300000000004</v>
       </c>
       <c r="F50" s="10">
-        <v>81.716099999999997</v>
+        <v>82.100300000000004</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>20</v>
@@ -16576,22 +16576,22 @@
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B51" s="10">
-        <v>81.78</v>
+        <v>81.919899999999998</v>
       </c>
       <c r="C51" s="10">
-        <v>81.883799999999994</v>
+        <v>82.178600000000003</v>
       </c>
       <c r="D51" s="10">
-        <v>81.617000000000004</v>
+        <v>81.781499999999994</v>
       </c>
       <c r="E51" s="10">
-        <v>81.78</v>
+        <v>81.919899999999998</v>
       </c>
       <c r="F51" s="10">
-        <v>81.78</v>
+        <v>81.919899999999998</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>20</v>
@@ -16599,22 +16599,22 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52" s="10">
-        <v>81.778700000000001</v>
+        <v>82.105000000000004</v>
       </c>
       <c r="C52" s="10">
-        <v>81.894300000000001</v>
+        <v>82.212800000000001</v>
       </c>
       <c r="D52" s="10">
-        <v>81.711500000000001</v>
+        <v>81.866</v>
       </c>
       <c r="E52" s="10">
-        <v>81.778700000000001</v>
+        <v>82.105000000000004</v>
       </c>
       <c r="F52" s="10">
-        <v>81.778700000000001</v>
+        <v>82.105000000000004</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>20</v>
@@ -16622,22 +16622,22 @@
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B53" s="10">
-        <v>81.774699999999996</v>
+        <v>81.787099999999995</v>
       </c>
       <c r="C53" s="10">
-        <v>81.950999999999993</v>
+        <v>82.148499999999999</v>
       </c>
       <c r="D53" s="10">
-        <v>81.718900000000005</v>
+        <v>81.775000000000006</v>
       </c>
       <c r="E53" s="10">
-        <v>81.774699999999996</v>
+        <v>81.787099999999995</v>
       </c>
       <c r="F53" s="10">
-        <v>81.774699999999996</v>
+        <v>81.787099999999995</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>20</v>
@@ -16645,22 +16645,22 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B54" s="10">
-        <v>81.744799999999998</v>
+        <v>81.729799999999997</v>
       </c>
       <c r="C54" s="10">
-        <v>81.924000000000007</v>
+        <v>81.825299999999999</v>
       </c>
       <c r="D54" s="10">
-        <v>81.705799999999996</v>
+        <v>81.673400000000001</v>
       </c>
       <c r="E54" s="10">
-        <v>81.744799999999998</v>
+        <v>81.729799999999997</v>
       </c>
       <c r="F54" s="10">
-        <v>81.744799999999998</v>
+        <v>81.729799999999997</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>20</v>
@@ -16668,22 +16668,22 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B55" s="10">
-        <v>81.765100000000004</v>
+        <v>81.716099999999997</v>
       </c>
       <c r="C55" s="10">
-        <v>81.861099999999993</v>
+        <v>81.8172</v>
       </c>
       <c r="D55" s="10">
-        <v>81.691000000000003</v>
+        <v>81.645499999999998</v>
       </c>
       <c r="E55" s="10">
-        <v>81.765100000000004</v>
+        <v>81.716099999999997</v>
       </c>
       <c r="F55" s="10">
-        <v>81.765100000000004</v>
+        <v>81.716099999999997</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>20</v>
@@ -16691,22 +16691,22 @@
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B56" s="10">
-        <v>81.766900000000007</v>
+        <v>81.78</v>
       </c>
       <c r="C56" s="10">
-        <v>81.850999999999999</v>
+        <v>81.883799999999994</v>
       </c>
       <c r="D56" s="10">
-        <v>81.603999999999999</v>
+        <v>81.617000000000004</v>
       </c>
       <c r="E56" s="10">
-        <v>81.766900000000007</v>
+        <v>81.78</v>
       </c>
       <c r="F56" s="10">
-        <v>81.766900000000007</v>
+        <v>81.78</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>20</v>
@@ -16714,22 +16714,22 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B57" s="10">
-        <v>81.991600000000005</v>
+        <v>81.778700000000001</v>
       </c>
       <c r="C57" s="10">
-        <v>82.091999999999999</v>
+        <v>81.894300000000001</v>
       </c>
       <c r="D57" s="10">
-        <v>81.6815</v>
+        <v>81.711500000000001</v>
       </c>
       <c r="E57" s="10">
-        <v>81.991600000000005</v>
+        <v>81.778700000000001</v>
       </c>
       <c r="F57" s="10">
-        <v>81.991600000000005</v>
+        <v>81.778700000000001</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>20</v>
@@ -16737,22 +16737,22 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B58" s="10">
-        <v>81.8523</v>
+        <v>81.774699999999996</v>
       </c>
       <c r="C58" s="10">
-        <v>82.018799999999999</v>
+        <v>81.950999999999993</v>
       </c>
       <c r="D58" s="10">
-        <v>81.851299999999995</v>
+        <v>81.718900000000005</v>
       </c>
       <c r="E58" s="10">
-        <v>81.8523</v>
+        <v>81.774699999999996</v>
       </c>
       <c r="F58" s="10">
-        <v>81.8523</v>
+        <v>81.774699999999996</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>20</v>
@@ -16760,22 +16760,22 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B59" s="10">
-        <v>82.0548</v>
+        <v>81.744799999999998</v>
       </c>
       <c r="C59" s="10">
-        <v>82.154899999999998</v>
+        <v>81.924000000000007</v>
       </c>
       <c r="D59" s="10">
-        <v>81.86</v>
+        <v>81.705799999999996</v>
       </c>
       <c r="E59" s="10">
-        <v>82.0548</v>
+        <v>81.744799999999998</v>
       </c>
       <c r="F59" s="10">
-        <v>82.0548</v>
+        <v>81.744799999999998</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>20</v>
@@ -16783,22 +16783,22 @@
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B60" s="10">
-        <v>82.140900000000002</v>
+        <v>81.765100000000004</v>
       </c>
       <c r="C60" s="10">
-        <v>82.2898</v>
+        <v>81.861099999999993</v>
       </c>
       <c r="D60" s="10">
-        <v>82.001499999999993</v>
+        <v>81.691000000000003</v>
       </c>
       <c r="E60" s="10">
-        <v>82.140900000000002</v>
+        <v>81.765100000000004</v>
       </c>
       <c r="F60" s="10">
-        <v>82.140900000000002</v>
+        <v>81.765100000000004</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>20</v>
@@ -16806,22 +16806,22 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B61" s="10">
-        <v>82.340100000000007</v>
+        <v>81.766900000000007</v>
       </c>
       <c r="C61" s="10">
-        <v>82.375500000000002</v>
+        <v>81.850999999999999</v>
       </c>
       <c r="D61" s="10">
-        <v>82.048900000000003</v>
+        <v>81.603999999999999</v>
       </c>
       <c r="E61" s="10">
-        <v>82.340100000000007</v>
+        <v>81.766900000000007</v>
       </c>
       <c r="F61" s="10">
-        <v>82.340100000000007</v>
+        <v>81.766900000000007</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>20</v>
@@ -16829,22 +16829,22 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B62" s="10">
-        <v>82.107900000000001</v>
+        <v>81.991600000000005</v>
       </c>
       <c r="C62" s="10">
-        <v>82.276499999999999</v>
+        <v>82.091999999999999</v>
       </c>
       <c r="D62" s="10">
-        <v>82.040499999999994</v>
+        <v>81.6815</v>
       </c>
       <c r="E62" s="10">
-        <v>82.107900000000001</v>
+        <v>81.991600000000005</v>
       </c>
       <c r="F62" s="10">
-        <v>82.107900000000001</v>
+        <v>81.991600000000005</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>20</v>
@@ -16852,22 +16852,22 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B63" s="10">
-        <v>82.003699999999995</v>
+        <v>81.8523</v>
       </c>
       <c r="C63" s="10">
-        <v>82.097099999999998</v>
+        <v>82.018799999999999</v>
       </c>
       <c r="D63" s="10">
-        <v>81.941500000000005</v>
+        <v>81.851299999999995</v>
       </c>
       <c r="E63" s="10">
-        <v>82.003699999999995</v>
+        <v>81.8523</v>
       </c>
       <c r="F63" s="10">
-        <v>82.003699999999995</v>
+        <v>81.8523</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>20</v>
@@ -16875,22 +16875,22 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B64" s="10">
-        <v>81.844800000000006</v>
+        <v>82.0548</v>
       </c>
       <c r="C64" s="10">
-        <v>82.084800000000001</v>
+        <v>82.154899999999998</v>
       </c>
       <c r="D64" s="10">
-        <v>81.844800000000006</v>
+        <v>81.86</v>
       </c>
       <c r="E64" s="10">
-        <v>81.844800000000006</v>
+        <v>82.0548</v>
       </c>
       <c r="F64" s="10">
-        <v>81.844800000000006</v>
+        <v>82.0548</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>20</v>
@@ -16898,22 +16898,22 @@
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B65" s="10">
-        <v>81.680700000000002</v>
+        <v>82.140900000000002</v>
       </c>
       <c r="C65" s="10">
-        <v>81.940899999999999</v>
+        <v>82.2898</v>
       </c>
       <c r="D65" s="10">
-        <v>81.471500000000006</v>
+        <v>82.001499999999993</v>
       </c>
       <c r="E65" s="10">
-        <v>81.680700000000002</v>
+        <v>82.140900000000002</v>
       </c>
       <c r="F65" s="10">
-        <v>81.680700000000002</v>
+        <v>82.140900000000002</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>20</v>
@@ -16921,22 +16921,22 @@
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B66" s="10">
-        <v>81.960599999999999</v>
+        <v>82.340100000000007</v>
       </c>
       <c r="C66" s="10">
-        <v>82.094999999999999</v>
+        <v>82.375500000000002</v>
       </c>
       <c r="D66" s="10">
-        <v>81.630899999999997</v>
+        <v>82.048900000000003</v>
       </c>
       <c r="E66" s="10">
-        <v>81.960599999999999</v>
+        <v>82.340100000000007</v>
       </c>
       <c r="F66" s="10">
-        <v>81.960599999999999</v>
+        <v>82.340100000000007</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>20</v>
@@ -16944,22 +16944,22 @@
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B67" s="10">
-        <v>82.070099999999996</v>
+        <v>82.107900000000001</v>
       </c>
       <c r="C67" s="10">
-        <v>82.125600000000006</v>
+        <v>82.276499999999999</v>
       </c>
       <c r="D67" s="10">
-        <v>81.939499999999995</v>
+        <v>82.040499999999994</v>
       </c>
       <c r="E67" s="10">
-        <v>82.070099999999996</v>
+        <v>82.107900000000001</v>
       </c>
       <c r="F67" s="10">
-        <v>82.070099999999996</v>
+        <v>82.107900000000001</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>20</v>
@@ -16967,22 +16967,22 @@
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B68" s="10">
-        <v>81.983900000000006</v>
+        <v>82.003699999999995</v>
       </c>
       <c r="C68" s="10">
-        <v>82.145899999999997</v>
+        <v>82.097099999999998</v>
       </c>
       <c r="D68" s="10">
-        <v>81.915999999999997</v>
+        <v>81.941500000000005</v>
       </c>
       <c r="E68" s="10">
-        <v>81.983900000000006</v>
+        <v>82.003699999999995</v>
       </c>
       <c r="F68" s="10">
-        <v>81.983900000000006</v>
+        <v>82.003699999999995</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>20</v>
@@ -16990,22 +16990,22 @@
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B69" s="10">
-        <v>81.884799999999998</v>
+        <v>81.844800000000006</v>
       </c>
       <c r="C69" s="10">
-        <v>82.037899999999993</v>
+        <v>82.084800000000001</v>
       </c>
       <c r="D69" s="10">
-        <v>81.760999999999996</v>
+        <v>81.844800000000006</v>
       </c>
       <c r="E69" s="10">
-        <v>81.884799999999998</v>
+        <v>81.844800000000006</v>
       </c>
       <c r="F69" s="10">
-        <v>81.884799999999998</v>
+        <v>81.844800000000006</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>20</v>
@@ -17013,22 +17013,22 @@
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B70" s="10">
-        <v>81.831299999999999</v>
+        <v>81.680700000000002</v>
       </c>
       <c r="C70" s="10">
-        <v>81.878600000000006</v>
+        <v>81.940899999999999</v>
       </c>
       <c r="D70" s="10">
-        <v>81.765000000000001</v>
+        <v>81.471500000000006</v>
       </c>
       <c r="E70" s="10">
-        <v>81.831299999999999</v>
+        <v>81.680700000000002</v>
       </c>
       <c r="F70" s="10">
-        <v>81.831299999999999</v>
+        <v>81.680700000000002</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>20</v>
@@ -17036,22 +17036,22 @@
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B71" s="10">
-        <v>81.95</v>
+        <v>81.960599999999999</v>
       </c>
       <c r="C71" s="10">
-        <v>82.1203</v>
+        <v>82.094999999999999</v>
       </c>
       <c r="D71" s="10">
-        <v>81.812200000000004</v>
+        <v>81.630899999999997</v>
       </c>
       <c r="E71" s="10">
-        <v>81.95</v>
+        <v>81.960599999999999</v>
       </c>
       <c r="F71" s="10">
-        <v>81.95</v>
+        <v>81.960599999999999</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>20</v>
@@ -17059,22 +17059,22 @@
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B72" s="10">
-        <v>82.114800000000002</v>
+        <v>82.070099999999996</v>
       </c>
       <c r="C72" s="10">
-        <v>82.243300000000005</v>
+        <v>82.125600000000006</v>
       </c>
       <c r="D72" s="10">
-        <v>81.835999999999999</v>
+        <v>81.939499999999995</v>
       </c>
       <c r="E72" s="10">
-        <v>82.114800000000002</v>
+        <v>82.070099999999996</v>
       </c>
       <c r="F72" s="10">
-        <v>82.114800000000002</v>
+        <v>82.070099999999996</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>20</v>
@@ -17082,22 +17082,22 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B73" s="10">
-        <v>82.140900000000002</v>
+        <v>81.983900000000006</v>
       </c>
       <c r="C73" s="10">
-        <v>82.278899999999993</v>
+        <v>82.145899999999997</v>
       </c>
       <c r="D73" s="10">
-        <v>82.081500000000005</v>
+        <v>81.915999999999997</v>
       </c>
       <c r="E73" s="10">
-        <v>82.140900000000002</v>
+        <v>81.983900000000006</v>
       </c>
       <c r="F73" s="10">
-        <v>82.140900000000002</v>
+        <v>81.983900000000006</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>20</v>
@@ -17105,22 +17105,22 @@
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B74" s="10">
-        <v>82.184799999999996</v>
+        <v>81.884799999999998</v>
       </c>
       <c r="C74" s="10">
-        <v>82.485500000000002</v>
+        <v>82.037899999999993</v>
       </c>
       <c r="D74" s="10">
-        <v>82.184899999999999</v>
+        <v>81.760999999999996</v>
       </c>
       <c r="E74" s="10">
-        <v>82.184799999999996</v>
+        <v>81.884799999999998</v>
       </c>
       <c r="F74" s="10">
-        <v>82.184799999999996</v>
+        <v>81.884799999999998</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>20</v>
@@ -17128,22 +17128,22 @@
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B75" s="10">
-        <v>82.100499999999997</v>
+        <v>81.831299999999999</v>
       </c>
       <c r="C75" s="10">
-        <v>82.311899999999994</v>
+        <v>81.878600000000006</v>
       </c>
       <c r="D75" s="10">
-        <v>82.029499999999999</v>
+        <v>81.765000000000001</v>
       </c>
       <c r="E75" s="10">
-        <v>82.100499999999997</v>
+        <v>81.831299999999999</v>
       </c>
       <c r="F75" s="10">
-        <v>82.100499999999997</v>
+        <v>81.831299999999999</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>20</v>
@@ -17151,22 +17151,22 @@
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B76" s="10">
-        <v>82.255399999999995</v>
+        <v>81.95</v>
       </c>
       <c r="C76" s="10">
-        <v>82.2791</v>
+        <v>82.1203</v>
       </c>
       <c r="D76" s="10">
-        <v>82.031999999999996</v>
+        <v>81.812200000000004</v>
       </c>
       <c r="E76" s="10">
-        <v>82.255399999999995</v>
+        <v>81.95</v>
       </c>
       <c r="F76" s="10">
-        <v>82.255399999999995</v>
+        <v>81.95</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>20</v>
@@ -17174,22 +17174,22 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B77" s="10">
-        <v>82.164299999999997</v>
+        <v>82.114800000000002</v>
       </c>
       <c r="C77" s="10">
-        <v>82.364999999999995</v>
+        <v>82.243300000000005</v>
       </c>
       <c r="D77" s="10">
-        <v>82.146000000000001</v>
+        <v>81.835999999999999</v>
       </c>
       <c r="E77" s="10">
-        <v>82.164299999999997</v>
+        <v>82.114800000000002</v>
       </c>
       <c r="F77" s="10">
-        <v>82.164299999999997</v>
+        <v>82.114800000000002</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>20</v>
@@ -17197,22 +17197,22 @@
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B78" s="10">
-        <v>82.2149</v>
+        <v>82.140900000000002</v>
       </c>
       <c r="C78" s="10">
-        <v>82.3733</v>
+        <v>82.278899999999993</v>
       </c>
       <c r="D78" s="10">
-        <v>82.079499999999996</v>
+        <v>82.081500000000005</v>
       </c>
       <c r="E78" s="10">
-        <v>82.2149</v>
+        <v>82.140900000000002</v>
       </c>
       <c r="F78" s="10">
-        <v>82.2149</v>
+        <v>82.140900000000002</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>20</v>
@@ -17220,22 +17220,22 @@
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B79" s="10">
-        <v>82.338800000000006</v>
+        <v>82.184799999999996</v>
       </c>
       <c r="C79" s="10">
-        <v>82.428299999999993</v>
+        <v>82.485500000000002</v>
       </c>
       <c r="D79" s="10">
-        <v>82.240600000000001</v>
+        <v>82.184899999999999</v>
       </c>
       <c r="E79" s="10">
-        <v>82.338800000000006</v>
+        <v>82.184799999999996</v>
       </c>
       <c r="F79" s="10">
-        <v>82.338800000000006</v>
+        <v>82.184799999999996</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>20</v>
@@ -17243,22 +17243,22 @@
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B80" s="10">
-        <v>82.265299999999996</v>
+        <v>82.100499999999997</v>
       </c>
       <c r="C80" s="10">
-        <v>82.513000000000005</v>
+        <v>82.311899999999994</v>
       </c>
       <c r="D80" s="10">
-        <v>82.180999999999997</v>
+        <v>82.029499999999999</v>
       </c>
       <c r="E80" s="10">
-        <v>82.265299999999996</v>
+        <v>82.100499999999997</v>
       </c>
       <c r="F80" s="10">
-        <v>82.265299999999996</v>
+        <v>82.100499999999997</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>20</v>
@@ -17266,22 +17266,22 @@
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B81" s="10">
-        <v>82.525800000000004</v>
+        <v>82.255399999999995</v>
       </c>
       <c r="C81" s="10">
-        <v>82.529300000000006</v>
+        <v>82.2791</v>
       </c>
       <c r="D81" s="10">
-        <v>82.0471</v>
+        <v>82.031999999999996</v>
       </c>
       <c r="E81" s="10">
-        <v>82.525800000000004</v>
+        <v>82.255399999999995</v>
       </c>
       <c r="F81" s="10">
-        <v>82.525800000000004</v>
+        <v>82.255399999999995</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>20</v>
@@ -17289,22 +17289,22 @@
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B82" s="10">
-        <v>82.677000000000007</v>
+        <v>82.164299999999997</v>
       </c>
       <c r="C82" s="10">
-        <v>82.882300000000001</v>
+        <v>82.364999999999995</v>
       </c>
       <c r="D82" s="10">
-        <v>82.533000000000001</v>
+        <v>82.146000000000001</v>
       </c>
       <c r="E82" s="10">
-        <v>82.677000000000007</v>
+        <v>82.164299999999997</v>
       </c>
       <c r="F82" s="10">
-        <v>82.677000000000007</v>
+        <v>82.164299999999997</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>20</v>
@@ -17312,22 +17312,22 @@
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B83" s="10">
-        <v>82.5291</v>
+        <v>82.2149</v>
       </c>
       <c r="C83" s="10">
-        <v>82.764300000000006</v>
+        <v>82.3733</v>
       </c>
       <c r="D83" s="10">
-        <v>82.490499999999997</v>
+        <v>82.079499999999996</v>
       </c>
       <c r="E83" s="10">
-        <v>82.5291</v>
+        <v>82.2149</v>
       </c>
       <c r="F83" s="10">
-        <v>82.5291</v>
+        <v>82.2149</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>20</v>
@@ -17335,22 +17335,22 @@
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B84" s="10">
-        <v>82.533000000000001</v>
+        <v>82.338800000000006</v>
       </c>
       <c r="C84" s="10">
-        <v>82.724299999999999</v>
+        <v>82.428299999999993</v>
       </c>
       <c r="D84" s="10">
-        <v>82.438999999999993</v>
+        <v>82.240600000000001</v>
       </c>
       <c r="E84" s="10">
-        <v>82.533000000000001</v>
+        <v>82.338800000000006</v>
       </c>
       <c r="F84" s="10">
-        <v>82.533000000000001</v>
+        <v>82.338800000000006</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>20</v>
@@ -17358,22 +17358,22 @@
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B85" s="10">
-        <v>82.622799999999998</v>
+        <v>82.265299999999996</v>
       </c>
       <c r="C85" s="10">
-        <v>82.867800000000003</v>
+        <v>82.513000000000005</v>
       </c>
       <c r="D85" s="10">
-        <v>82.420500000000004</v>
+        <v>82.180999999999997</v>
       </c>
       <c r="E85" s="10">
-        <v>82.622799999999998</v>
+        <v>82.265299999999996</v>
       </c>
       <c r="F85" s="10">
-        <v>82.622799999999998</v>
+        <v>82.265299999999996</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>20</v>
@@ -17381,22 +17381,22 @@
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B86" s="10">
-        <v>82.715699999999998</v>
+        <v>82.525800000000004</v>
       </c>
       <c r="C86" s="10">
-        <v>82.992000000000004</v>
+        <v>82.529300000000006</v>
       </c>
       <c r="D86" s="10">
-        <v>82.586699999999993</v>
+        <v>82.0471</v>
       </c>
       <c r="E86" s="10">
-        <v>82.715699999999998</v>
+        <v>82.525800000000004</v>
       </c>
       <c r="F86" s="10">
-        <v>82.715699999999998</v>
+        <v>82.525800000000004</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>20</v>
@@ -17404,22 +17404,22 @@
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B87" s="10">
-        <v>82.304900000000004</v>
+        <v>82.677000000000007</v>
       </c>
       <c r="C87" s="10">
-        <v>83.012500000000003</v>
+        <v>82.882300000000001</v>
       </c>
       <c r="D87" s="10">
-        <v>82.185500000000005</v>
+        <v>82.533000000000001</v>
       </c>
       <c r="E87" s="10">
-        <v>82.304900000000004</v>
+        <v>82.677000000000007</v>
       </c>
       <c r="F87" s="10">
-        <v>82.304900000000004</v>
+        <v>82.677000000000007</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>20</v>
@@ -17427,22 +17427,22 @@
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B88" s="10">
-        <v>82.417400000000001</v>
+        <v>82.5291</v>
       </c>
       <c r="C88" s="10">
-        <v>82.669499999999999</v>
+        <v>82.764300000000006</v>
       </c>
       <c r="D88" s="10">
-        <v>82.232500000000002</v>
+        <v>82.490499999999997</v>
       </c>
       <c r="E88" s="10">
-        <v>82.417400000000001</v>
+        <v>82.5291</v>
       </c>
       <c r="F88" s="10">
-        <v>82.417400000000001</v>
+        <v>82.5291</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>20</v>
@@ -17450,22 +17450,22 @@
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B89" s="10">
-        <v>81.957999999999998</v>
+        <v>82.533000000000001</v>
       </c>
       <c r="C89" s="10">
-        <v>82.308599999999998</v>
+        <v>82.724299999999999</v>
       </c>
       <c r="D89" s="10">
-        <v>81.627300000000005</v>
+        <v>82.438999999999993</v>
       </c>
       <c r="E89" s="10">
-        <v>81.957999999999998</v>
+        <v>82.533000000000001</v>
       </c>
       <c r="F89" s="10">
-        <v>81.957999999999998</v>
+        <v>82.533000000000001</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>20</v>
@@ -17473,22 +17473,22 @@
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B90" s="10">
-        <v>82.0184</v>
+        <v>82.622799999999998</v>
       </c>
       <c r="C90" s="10">
-        <v>82.227800000000002</v>
+        <v>82.867800000000003</v>
       </c>
       <c r="D90" s="10">
-        <v>81.842399999999998</v>
+        <v>82.420500000000004</v>
       </c>
       <c r="E90" s="10">
-        <v>82.0184</v>
+        <v>82.622799999999998</v>
       </c>
       <c r="F90" s="10">
-        <v>82.0184</v>
+        <v>82.622799999999998</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>20</v>
@@ -17496,22 +17496,22 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B91" s="10">
-        <v>81.964500000000001</v>
+        <v>82.715699999999998</v>
       </c>
       <c r="C91" s="10">
-        <v>82.086399999999998</v>
+        <v>82.992000000000004</v>
       </c>
       <c r="D91" s="10">
-        <v>81.783000000000001</v>
+        <v>82.586699999999993</v>
       </c>
       <c r="E91" s="10">
-        <v>81.964500000000001</v>
+        <v>82.715699999999998</v>
       </c>
       <c r="F91" s="10">
-        <v>81.964500000000001</v>
+        <v>82.715699999999998</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>20</v>
@@ -17519,22 +17519,22 @@
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B92" s="10">
-        <v>82.074600000000004</v>
+        <v>82.304900000000004</v>
       </c>
       <c r="C92" s="10">
-        <v>82.281300000000002</v>
+        <v>83.012500000000003</v>
       </c>
       <c r="D92" s="10">
-        <v>81.867099999999994</v>
+        <v>82.185500000000005</v>
       </c>
       <c r="E92" s="10">
-        <v>82.074600000000004</v>
+        <v>82.304900000000004</v>
       </c>
       <c r="F92" s="10">
-        <v>82.074600000000004</v>
+        <v>82.304900000000004</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>20</v>
@@ -17542,22 +17542,22 @@
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B93" s="10">
-        <v>81.854399999999998</v>
+        <v>82.417400000000001</v>
       </c>
       <c r="C93" s="10">
-        <v>82.026499999999999</v>
+        <v>82.669499999999999</v>
       </c>
       <c r="D93" s="10">
-        <v>81.739000000000004</v>
+        <v>82.232500000000002</v>
       </c>
       <c r="E93" s="10">
-        <v>81.854399999999998</v>
+        <v>82.417400000000001</v>
       </c>
       <c r="F93" s="10">
-        <v>81.854399999999998</v>
+        <v>82.417400000000001</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>20</v>
@@ -17565,22 +17565,22 @@
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B94" s="10">
-        <v>81.712500000000006</v>
+        <v>81.957999999999998</v>
       </c>
       <c r="C94" s="10">
-        <v>81.970299999999995</v>
+        <v>82.308599999999998</v>
       </c>
       <c r="D94" s="10">
-        <v>81.619</v>
+        <v>81.627300000000005</v>
       </c>
       <c r="E94" s="10">
-        <v>81.712500000000006</v>
+        <v>81.957999999999998</v>
       </c>
       <c r="F94" s="10">
-        <v>81.712500000000006</v>
+        <v>81.957999999999998</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>20</v>
@@ -17588,22 +17588,22 @@
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B95" s="10">
-        <v>82.355699999999999</v>
+        <v>82.0184</v>
       </c>
       <c r="C95" s="10">
-        <v>82.581299999999999</v>
+        <v>82.227800000000002</v>
       </c>
       <c r="D95" s="10">
-        <v>81.703900000000004</v>
+        <v>81.842399999999998</v>
       </c>
       <c r="E95" s="10">
-        <v>82.355699999999999</v>
+        <v>82.0184</v>
       </c>
       <c r="F95" s="10">
-        <v>82.355699999999999</v>
+        <v>82.0184</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>20</v>
@@ -17611,22 +17611,22 @@
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10">
-        <v>82.419899999999998</v>
+        <v>81.964500000000001</v>
       </c>
       <c r="C96" s="10">
-        <v>82.657799999999995</v>
+        <v>82.086399999999998</v>
       </c>
       <c r="D96" s="10">
-        <v>82.302099999999996</v>
+        <v>81.783000000000001</v>
       </c>
       <c r="E96" s="10">
-        <v>82.419899999999998</v>
+        <v>81.964500000000001</v>
       </c>
       <c r="F96" s="10">
-        <v>82.419899999999998</v>
+        <v>81.964500000000001</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>20</v>
@@ -17634,22 +17634,22 @@
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B97" s="10">
-        <v>82.635400000000004</v>
+        <v>82.074600000000004</v>
       </c>
       <c r="C97" s="10">
-        <v>82.878299999999996</v>
+        <v>82.281300000000002</v>
       </c>
       <c r="D97" s="10">
-        <v>82.378</v>
+        <v>81.867099999999994</v>
       </c>
       <c r="E97" s="10">
-        <v>82.635400000000004</v>
+        <v>82.074600000000004</v>
       </c>
       <c r="F97" s="10">
-        <v>82.635400000000004</v>
+        <v>82.074600000000004</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>20</v>
@@ -17657,22 +17657,22 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B98" s="10">
-        <v>82.652000000000001</v>
+        <v>81.854399999999998</v>
       </c>
       <c r="C98" s="10">
-        <v>82.750500000000002</v>
+        <v>82.026499999999999</v>
       </c>
       <c r="D98" s="10">
-        <v>82.56</v>
+        <v>81.739000000000004</v>
       </c>
       <c r="E98" s="10">
-        <v>82.652000000000001</v>
+        <v>81.854399999999998</v>
       </c>
       <c r="F98" s="10">
-        <v>82.652000000000001</v>
+        <v>81.854399999999998</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>20</v>
@@ -17680,22 +17680,22 @@
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B99" s="10">
-        <v>82.918000000000006</v>
+        <v>81.712500000000006</v>
       </c>
       <c r="C99" s="10">
-        <v>83.080299999999994</v>
+        <v>81.970299999999995</v>
       </c>
       <c r="D99" s="10">
-        <v>82.628</v>
+        <v>81.619</v>
       </c>
       <c r="E99" s="10">
-        <v>82.918000000000006</v>
+        <v>81.712500000000006</v>
       </c>
       <c r="F99" s="10">
-        <v>82.918000000000006</v>
+        <v>81.712500000000006</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>20</v>
@@ -17703,22 +17703,22 @@
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B100" s="10">
-        <v>82.617900000000006</v>
+        <v>82.355699999999999</v>
       </c>
       <c r="C100" s="10">
-        <v>83.005200000000002</v>
+        <v>82.581299999999999</v>
       </c>
       <c r="D100" s="10">
-        <v>82.609499999999997</v>
+        <v>81.703900000000004</v>
       </c>
       <c r="E100" s="10">
-        <v>82.617900000000006</v>
+        <v>82.355699999999999</v>
       </c>
       <c r="F100" s="10">
-        <v>82.617900000000006</v>
+        <v>82.355699999999999</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>20</v>
@@ -17726,22 +17726,22 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B101" s="10">
-        <v>82.835300000000004</v>
+        <v>82.419899999999998</v>
       </c>
       <c r="C101" s="10">
-        <v>82.903000000000006</v>
+        <v>82.657799999999995</v>
       </c>
       <c r="D101" s="10">
-        <v>82.563000000000002</v>
+        <v>82.302099999999996</v>
       </c>
       <c r="E101" s="10">
-        <v>82.835300000000004</v>
+        <v>82.419899999999998</v>
       </c>
       <c r="F101" s="10">
-        <v>82.835300000000004</v>
+        <v>82.419899999999998</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>20</v>
@@ -17749,7 +17749,7 @@
     </row>
     <row r="102" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -17771,7 +17771,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
